--- a/output/emails.xlsx
+++ b/output/emails.xlsx
@@ -1828,1669 +1828,1669 @@
     <t>50346472-1</t>
   </si>
   <si>
-    <t>imperdiet@Phasellusfermentumconvallis.co.uk</t>
-  </si>
-  <si>
-    <t>Duis@bibendumullamcorperDuis.com</t>
-  </si>
-  <si>
-    <t>Nam.interdum.enim@disparturientmontes.org</t>
-  </si>
-  <si>
-    <t>habitant.morbi@Lorem.co.uk</t>
-  </si>
-  <si>
-    <t>scelerisque@imperdiet.edu</t>
-  </si>
-  <si>
-    <t>ipsum.Phasellus.vitae@adui.org</t>
-  </si>
-  <si>
-    <t>urna.justo.faucibus@fringillacursus.net</t>
-  </si>
-  <si>
-    <t>arcu@Inornaresagittis.ca</t>
-  </si>
-  <si>
-    <t>ante.Vivamus@ac.edu</t>
-  </si>
-  <si>
-    <t>non.cursus@semmagnanec.com</t>
-  </si>
-  <si>
-    <t>elit.Etiam@sit.com</t>
-  </si>
-  <si>
-    <t>et.eros@nullavulputatedui.ca</t>
-  </si>
-  <si>
-    <t>amet.orci@magnisdisparturient.org</t>
-  </si>
-  <si>
-    <t>neque.tellus.imperdiet@magna.co.uk</t>
-  </si>
-  <si>
-    <t>aliquam.eros@felisNullatempor.edu</t>
-  </si>
-  <si>
-    <t>non.magna.Nam@gravidanunc.com</t>
-  </si>
-  <si>
-    <t>semper.Nam.tempor@montes.edu</t>
-  </si>
-  <si>
-    <t>consectetuer.adipiscing.elit@porttitor.com</t>
-  </si>
-  <si>
-    <t>sapien.molestie@vitaeeratvel.com</t>
-  </si>
-  <si>
-    <t>Morbi.quis@ataugue.ca</t>
-  </si>
-  <si>
-    <t>dapibus@purus.org</t>
-  </si>
-  <si>
-    <t>et.libero@liberoat.net</t>
-  </si>
-  <si>
-    <t>egestas.lacinia@blandit.co.uk</t>
-  </si>
-  <si>
-    <t>mi@aliquetnecimperdiet.co.uk</t>
-  </si>
-  <si>
-    <t>Proin.mi.Aliquam@Aliquamfringillacursus.com</t>
-  </si>
-  <si>
-    <t>sem@rutrum.co.uk</t>
-  </si>
-  <si>
-    <t>pede.ultrices.a@dolordapibus.org</t>
-  </si>
-  <si>
-    <t>leo.Morbi.neque@massarutrummagna.ca</t>
-  </si>
-  <si>
-    <t>Vestibulum.accumsan@scelerisquenequeNullam.ca</t>
-  </si>
-  <si>
-    <t>Aliquam@nislsem.com</t>
-  </si>
-  <si>
-    <t>Fusce@dolorQuisque.org</t>
-  </si>
-  <si>
-    <t>Quisque.libero@semper.com</t>
-  </si>
-  <si>
-    <t>non@ornareegestasligula.co.uk</t>
-  </si>
-  <si>
-    <t>metus.facilisis.lorem@ametconsectetueradipiscing.ca</t>
-  </si>
-  <si>
-    <t>ligula.Nullam.enim@nisi.com</t>
-  </si>
-  <si>
-    <t>natoque@auctorquistristique.ca</t>
-  </si>
-  <si>
-    <t>semper@Etiamlaoreet.net</t>
-  </si>
-  <si>
-    <t>egestas.ligula@Maurismagna.edu</t>
-  </si>
-  <si>
-    <t>tempus@liberoInteger.net</t>
-  </si>
-  <si>
-    <t>id.blandit.at@nonummyac.ca</t>
-  </si>
-  <si>
-    <t>Cras@eunibhvulputate.co.uk</t>
-  </si>
-  <si>
-    <t>augue@antedictumcursus.edu</t>
-  </si>
-  <si>
-    <t>sagittis@Vestibulumaccumsanneque.org</t>
-  </si>
-  <si>
-    <t>convallis.dolor@dignissimpharetraNam.org</t>
-  </si>
-  <si>
-    <t>Etiam.gravida.molestie@nislMaecenas.ca</t>
-  </si>
-  <si>
-    <t>imperdiet.ullamcorper.Duis@nisiCumsociis.co.uk</t>
-  </si>
-  <si>
-    <t>magna@pedesagittis.co.uk</t>
-  </si>
-  <si>
-    <t>tellus.Phasellus.elit@etliberoProin.edu</t>
-  </si>
-  <si>
-    <t>mollis@variusultrices.ca</t>
-  </si>
-  <si>
-    <t>enim.Nunc@Suspendisseacmetus.edu</t>
-  </si>
-  <si>
-    <t>eros.non@pellentesqueegetdictum.net</t>
-  </si>
-  <si>
-    <t>dolor.sit@magnaLoremipsum.ca</t>
-  </si>
-  <si>
-    <t>aliquam.eu@purus.com</t>
-  </si>
-  <si>
-    <t>porttitor@acfacilisis.org</t>
-  </si>
-  <si>
-    <t>ac@vehiculaet.ca</t>
-  </si>
-  <si>
-    <t>Suspendisse.eleifend@magnis.ca</t>
-  </si>
-  <si>
-    <t>interdum.Nunc.sollicitudin@commodoauctor.org</t>
-  </si>
-  <si>
-    <t>laoreet.ipsum@arcuSedet.edu</t>
-  </si>
-  <si>
-    <t>Proin.dolor@nunc.edu</t>
-  </si>
-  <si>
-    <t>ridiculus@Nam.edu</t>
-  </si>
-  <si>
-    <t>Nunc@interdumNuncsollicitudin.org</t>
-  </si>
-  <si>
-    <t>Nulla.eget@pedeNunc.net</t>
-  </si>
-  <si>
-    <t>sagittis@fermentumarcu.edu</t>
-  </si>
-  <si>
-    <t>lobortis.mauris.Suspendisse@est.co.uk</t>
-  </si>
-  <si>
-    <t>Mauris.vestibulum.neque@eleifendCras.edu</t>
-  </si>
-  <si>
-    <t>sem@nunc.org</t>
-  </si>
-  <si>
-    <t>diam.at.pretium@Sed.co.uk</t>
-  </si>
-  <si>
-    <t>amet@sociosquad.com</t>
-  </si>
-  <si>
-    <t>Sed.et.libero@risusatfringilla.com</t>
-  </si>
-  <si>
-    <t>nec.leo@diamlorem.edu</t>
-  </si>
-  <si>
-    <t>ipsum@tempor.ca</t>
-  </si>
-  <si>
-    <t>velit.eget.laoreet@congue.ca</t>
-  </si>
-  <si>
-    <t>cursus.a.enim@dictumPhasellusin.ca</t>
-  </si>
-  <si>
-    <t>Duis.sit.amet@Aeneaneuismodmauris.org</t>
-  </si>
-  <si>
-    <t>est.Mauris.eu@vitaeodiosagittis.edu</t>
-  </si>
-  <si>
-    <t>arcu.iaculis@neque.ca</t>
-  </si>
-  <si>
-    <t>molestie.in.tempus@ultriciesornare.org</t>
-  </si>
-  <si>
-    <t>neque@pellentesque.edu</t>
-  </si>
-  <si>
-    <t>Praesent@quam.co.uk</t>
-  </si>
-  <si>
-    <t>lectus@aenim.edu</t>
-  </si>
-  <si>
-    <t>sed.consequat.auctor@etmalesuada.ca</t>
-  </si>
-  <si>
-    <t>lacinia.mattis@risus.co.uk</t>
-  </si>
-  <si>
-    <t>mauris@commodo.edu</t>
-  </si>
-  <si>
-    <t>nec.diam@Morbineque.net</t>
-  </si>
-  <si>
-    <t>Nam.ac.nulla@eu.co.uk</t>
-  </si>
-  <si>
-    <t>eleifend.nec.malesuada@semegestas.org</t>
-  </si>
-  <si>
-    <t>vel@tellussemmollis.net</t>
-  </si>
-  <si>
-    <t>nibh@ac.co.uk</t>
-  </si>
-  <si>
-    <t>lorem.ipsum.sodales@molestie.ca</t>
-  </si>
-  <si>
-    <t>Phasellus.at.augue@facilisis.net</t>
-  </si>
-  <si>
-    <t>Nulla@Fuscemollis.edu</t>
-  </si>
-  <si>
-    <t>tellus.Nunc.lectus@molestiearcu.net</t>
-  </si>
-  <si>
-    <t>tempus.risus.Donec@semut.edu</t>
-  </si>
-  <si>
-    <t>consequat.enim@dapibusligula.edu</t>
-  </si>
-  <si>
-    <t>velit.egestas.lacinia@Sedetlibero.ca</t>
-  </si>
-  <si>
-    <t>nec@lobortisnisi.co.uk</t>
-  </si>
-  <si>
-    <t>Vivamus.non@infaucibusorci.ca</t>
-  </si>
-  <si>
-    <t>litora.torquent@erat.org</t>
-  </si>
-  <si>
-    <t>semper.tellus.id@variusultrices.net</t>
-  </si>
-  <si>
-    <t>nostra.per@Cras.com</t>
-  </si>
-  <si>
-    <t>cursus.non@tempusscelerisque.org</t>
-  </si>
-  <si>
-    <t>et@lobortis.co.uk</t>
-  </si>
-  <si>
-    <t>ultricies.ligula.Nullam@CraspellentesqueSed.org</t>
-  </si>
-  <si>
-    <t>mattis.Integer.eu@Pellentesquehabitantmorbi.co.uk</t>
-  </si>
-  <si>
-    <t>luctus.et@velitegestaslacinia.org</t>
-  </si>
-  <si>
-    <t>Cras.sed@necurna.co.uk</t>
-  </si>
-  <si>
-    <t>sapien.imperdiet.ornare@inhendrerit.com</t>
-  </si>
-  <si>
-    <t>justo.eu.arcu@odiovel.ca</t>
-  </si>
-  <si>
-    <t>augue@enimSuspendisse.co.uk</t>
-  </si>
-  <si>
-    <t>in.faucibus.orci@Phasellusnulla.net</t>
-  </si>
-  <si>
-    <t>lacus@sociisnatoque.org</t>
-  </si>
-  <si>
-    <t>ultricies.adipiscing.enim@viverraMaecenas.co.uk</t>
-  </si>
-  <si>
-    <t>Sed@magnaPhasellus.ca</t>
-  </si>
-  <si>
-    <t>ultrices.Vivamus@ullamcorpermagna.edu</t>
-  </si>
-  <si>
-    <t>adipiscing.elit@mus.org</t>
-  </si>
-  <si>
-    <t>facilisis.facilisis@mattis.com</t>
-  </si>
-  <si>
-    <t>Etiam.vestibulum@ornareegestasligula.com</t>
-  </si>
-  <si>
-    <t>diam@Sednulla.co.uk</t>
-  </si>
-  <si>
-    <t>diam.lorem.auctor@parturientmontes.co.uk</t>
-  </si>
-  <si>
-    <t>ultrices@pellentesquemassalobortis.com</t>
-  </si>
-  <si>
-    <t>sed.pede@ut.co.uk</t>
-  </si>
-  <si>
-    <t>libero@ipsumdolor.com</t>
-  </si>
-  <si>
-    <t>id.erat@etnuncQuisque.com</t>
-  </si>
-  <si>
-    <t>nibh.sit@est.edu</t>
-  </si>
-  <si>
-    <t>fermentum.convallis@lobortisnisi.com</t>
-  </si>
-  <si>
-    <t>lacus@facilisis.co.uk</t>
-  </si>
-  <si>
-    <t>turpis@Duis.com</t>
-  </si>
-  <si>
-    <t>accumsan@idmollisnec.edu</t>
-  </si>
-  <si>
-    <t>ac@enim.edu</t>
-  </si>
-  <si>
-    <t>senectus@enimSed.co.uk</t>
-  </si>
-  <si>
-    <t>aliquet@Etiam.net</t>
-  </si>
-  <si>
-    <t>ornare.egestas.ligula@metusfacilisis.co.uk</t>
-  </si>
-  <si>
-    <t>Proin.sed.turpis@cursusInteger.com</t>
-  </si>
-  <si>
-    <t>sit.amet.ultricies@Donec.com</t>
-  </si>
-  <si>
-    <t>vestibulum.neque@eu.ca</t>
-  </si>
-  <si>
-    <t>ut@pellentesquemassalobortis.net</t>
-  </si>
-  <si>
-    <t>Aliquam.adipiscing@Vivamussitamet.com</t>
-  </si>
-  <si>
-    <t>varius.ultrices.mauris@dolornonummy.edu</t>
-  </si>
-  <si>
-    <t>eget@Fuscediam.org</t>
-  </si>
-  <si>
-    <t>cursus.vestibulum@ligulaelit.ca</t>
-  </si>
-  <si>
-    <t>cursus@semperdui.net</t>
-  </si>
-  <si>
-    <t>consequat.enim@nibhdolor.edu</t>
-  </si>
-  <si>
-    <t>pretium.aliquet.metus@Sed.ca</t>
-  </si>
-  <si>
-    <t>dictum.magna.Ut@Phaselluselit.ca</t>
-  </si>
-  <si>
-    <t>vel.vulputate.eu@acfeugiat.org</t>
-  </si>
-  <si>
-    <t>ornare@Inmi.edu</t>
-  </si>
-  <si>
-    <t>dapibus.quam@eteros.ca</t>
-  </si>
-  <si>
-    <t>dolor.nonummy@idmagnaet.com</t>
-  </si>
-  <si>
-    <t>Mauris.blandit.enim@liberoatauctor.co.uk</t>
-  </si>
-  <si>
-    <t>velit.eget@nostraper.edu</t>
-  </si>
-  <si>
-    <t>augue.porttitor.interdum@nectempusscelerisque.com</t>
-  </si>
-  <si>
-    <t>Duis@lectus.com</t>
-  </si>
-  <si>
-    <t>placerat.augue@augueeu.edu</t>
-  </si>
-  <si>
-    <t>Vivamus.non.lorem@eleifendnon.ca</t>
-  </si>
-  <si>
-    <t>mauris@faucibusidlibero.org</t>
-  </si>
-  <si>
-    <t>mattis@at.ca</t>
-  </si>
-  <si>
-    <t>purus@Aliquam.ca</t>
-  </si>
-  <si>
-    <t>et.eros.Proin@tristique.net</t>
-  </si>
-  <si>
-    <t>Duis.elementum@rutrumnon.edu</t>
-  </si>
-  <si>
-    <t>Lorem@magnatellus.com</t>
-  </si>
-  <si>
-    <t>leo.Vivamus@risusDuisa.org</t>
-  </si>
-  <si>
-    <t>Morbi@Curabitur.edu</t>
-  </si>
-  <si>
-    <t>Integer@ac.net</t>
-  </si>
-  <si>
-    <t>sed@Crasvehiculaaliquet.co.uk</t>
-  </si>
-  <si>
-    <t>interdum.Sed.auctor@iaculisaliquetdiam.org</t>
-  </si>
-  <si>
-    <t>venenatis.vel.faucibus@imperdiet.co.uk</t>
-  </si>
-  <si>
-    <t>ac.libero.nec@Aliquamadipiscinglobortis.edu</t>
-  </si>
-  <si>
-    <t>quis.pede@Curabiturdictum.edu</t>
-  </si>
-  <si>
-    <t>euismod.in@dolorNulla.ca</t>
-  </si>
-  <si>
-    <t>lobortis.risus.In@tellus.org</t>
-  </si>
-  <si>
-    <t>cursus@accumsannequeet.net</t>
-  </si>
-  <si>
-    <t>leo.Cras.vehicula@tempusmauris.co.uk</t>
-  </si>
-  <si>
-    <t>mauris.erat@quis.co.uk</t>
-  </si>
-  <si>
-    <t>eget.volutpat.ornare@dictumeueleifend.org</t>
-  </si>
-  <si>
-    <t>ac.mi.eleifend@nibhdolor.org</t>
-  </si>
-  <si>
-    <t>accumsan.convallis@semmagnanec.org</t>
-  </si>
-  <si>
-    <t>parturient@Morbi.org</t>
-  </si>
-  <si>
-    <t>Fusce.feugiat.Lorem@consequat.org</t>
-  </si>
-  <si>
-    <t>sit@urnaet.org</t>
-  </si>
-  <si>
-    <t>varius@Phasellusinfelis.net</t>
-  </si>
-  <si>
-    <t>sit@varius.net</t>
-  </si>
-  <si>
-    <t>vitae@vulputate.co.uk</t>
-  </si>
-  <si>
-    <t>vel.quam.dignissim@liberoProinsed.com</t>
-  </si>
-  <si>
-    <t>enim.Curabitur.massa@semutdolor.net</t>
-  </si>
-  <si>
-    <t>odio.semper@Namacnulla.com</t>
-  </si>
-  <si>
-    <t>vel.quam.dignissim@dapibus.ca</t>
-  </si>
-  <si>
-    <t>nec.tempus.mauris@egestas.net</t>
-  </si>
-  <si>
-    <t>id.sapien.Cras@Etiamvestibulum.edu</t>
-  </si>
-  <si>
-    <t>enim.Etiam@semper.edu</t>
-  </si>
-  <si>
-    <t>tincidunt@sapien.ca</t>
-  </si>
-  <si>
-    <t>leo.in.lobortis@Morbi.ca</t>
-  </si>
-  <si>
-    <t>magna@Nullamfeugiatplacerat.ca</t>
-  </si>
-  <si>
-    <t>nibh.Donec.est@vulputate.org</t>
-  </si>
-  <si>
-    <t>faucibus.orci.luctus@est.org</t>
-  </si>
-  <si>
-    <t>Curabitur.vel@risusatfringilla.com</t>
-  </si>
-  <si>
-    <t>vitae.posuere@egestasligula.net</t>
-  </si>
-  <si>
-    <t>Sed.diam.lorem@euneque.ca</t>
-  </si>
-  <si>
-    <t>risus.Donec@nasceturridiculus.org</t>
-  </si>
-  <si>
-    <t>Cras.sed@pharetra.org</t>
-  </si>
-  <si>
-    <t>in.consectetuer.ipsum@posuere.net</t>
-  </si>
-  <si>
-    <t>Quisque.libero@consectetuer.ca</t>
-  </si>
-  <si>
-    <t>nisl.elementum.purus@adipiscingelitAliquam.ca</t>
-  </si>
-  <si>
-    <t>lacus@nequeSedeget.edu</t>
-  </si>
-  <si>
-    <t>vitae@idrisus.ca</t>
-  </si>
-  <si>
-    <t>arcu@sedorci.net</t>
-  </si>
-  <si>
-    <t>In.nec@scelerisquenequeNullam.org</t>
-  </si>
-  <si>
-    <t>semper.rutrum@pedeNunc.ca</t>
-  </si>
-  <si>
-    <t>Quisque@pedenec.ca</t>
-  </si>
-  <si>
-    <t>Aenean.egestas@Pellentesqueutipsum.org</t>
-  </si>
-  <si>
-    <t>Aliquam@metusfacilisis.edu</t>
-  </si>
-  <si>
-    <t>elit.erat.vitae@eu.org</t>
-  </si>
-  <si>
-    <t>amet.ante@turpisNulla.com</t>
-  </si>
-  <si>
-    <t>id@fringilla.net</t>
-  </si>
-  <si>
-    <t>Donec@nibh.co.uk</t>
-  </si>
-  <si>
-    <t>augue.eu@Proinnisl.co.uk</t>
-  </si>
-  <si>
-    <t>a.scelerisque@semelit.net</t>
-  </si>
-  <si>
-    <t>Nunc.sed@tristique.edu</t>
-  </si>
-  <si>
-    <t>sem.Pellentesque.ut@netus.org</t>
-  </si>
-  <si>
-    <t>nulla@indolorFusce.co.uk</t>
-  </si>
-  <si>
-    <t>lacus.Quisque@amet.com</t>
-  </si>
-  <si>
-    <t>Donec.consectetuer.mauris@venenatisamagna.ca</t>
-  </si>
-  <si>
-    <t>felis.adipiscing.fringilla@vulputateposuere.edu</t>
-  </si>
-  <si>
-    <t>dolor.vitae@arcu.org</t>
-  </si>
-  <si>
-    <t>Aliquam@lorem.edu</t>
-  </si>
-  <si>
-    <t>auctor.quis@risusDonecegestas.net</t>
-  </si>
-  <si>
-    <t>tellus.justo.sit@elementum.ca</t>
-  </si>
-  <si>
-    <t>ut.mi@nulla.net</t>
-  </si>
-  <si>
-    <t>diam.Proin@sed.ca</t>
-  </si>
-  <si>
-    <t>et.magnis@Curabiturutodio.co.uk</t>
-  </si>
-  <si>
-    <t>cursus.vestibulum.Mauris@vitaepurusgravida.com</t>
-  </si>
-  <si>
-    <t>erat@a.org</t>
-  </si>
-  <si>
-    <t>nibh@leoinlobortis.co.uk</t>
-  </si>
-  <si>
-    <t>dui.Fusce@scelerisque.net</t>
-  </si>
-  <si>
-    <t>imperdiet@faucibusleoin.net</t>
-  </si>
-  <si>
-    <t>orci.Ut@dolorFuscefeugiat.net</t>
-  </si>
-  <si>
-    <t>lobortis@utmiDuis.co.uk</t>
-  </si>
-  <si>
-    <t>a@ut.org</t>
-  </si>
-  <si>
-    <t>iaculis.lacus@aduiCras.com</t>
-  </si>
-  <si>
-    <t>penatibus@egestas.edu</t>
-  </si>
-  <si>
-    <t>adipiscing.fringilla@luctusut.co.uk</t>
-  </si>
-  <si>
-    <t>Praesent.eu@commodohendrerit.com</t>
-  </si>
-  <si>
-    <t>ante@augueeutempor.com</t>
-  </si>
-  <si>
-    <t>Fusce.mollis.Duis@tincidunt.com</t>
-  </si>
-  <si>
-    <t>dui.Fusce@nulla.co.uk</t>
-  </si>
-  <si>
-    <t>iaculis.odio@nec.ca</t>
-  </si>
-  <si>
-    <t>vehicula.aliquet@felispurusac.net</t>
-  </si>
-  <si>
-    <t>molestie@Integervitaenibh.com</t>
-  </si>
-  <si>
-    <t>vestibulum@Duismienim.net</t>
-  </si>
-  <si>
-    <t>vulputate.posuere@scelerisqueloremipsum.org</t>
-  </si>
-  <si>
-    <t>at.auctor@antedictum.edu</t>
-  </si>
-  <si>
-    <t>ullamcorper.Duis.cursus@quamdignissim.org</t>
-  </si>
-  <si>
-    <t>et@commodoauctorvelit.com</t>
-  </si>
-  <si>
-    <t>Mauris@ligula.com</t>
-  </si>
-  <si>
-    <t>mauris.rhoncus.id@sagittisNullamvitae.co.uk</t>
-  </si>
-  <si>
-    <t>facilisis.eget.ipsum@MaurisnullaInteger.edu</t>
-  </si>
-  <si>
-    <t>non.quam@necorci.co.uk</t>
-  </si>
-  <si>
-    <t>Sed@lobortisnisi.net</t>
-  </si>
-  <si>
-    <t>aliquet.magna.a@velitinaliquet.ca</t>
-  </si>
-  <si>
-    <t>rhoncus.Nullam.velit@risusodioauctor.edu</t>
-  </si>
-  <si>
-    <t>non.nisi@nislarcu.org</t>
-  </si>
-  <si>
-    <t>mus.Proin@ligula.edu</t>
-  </si>
-  <si>
-    <t>vitae@ante.co.uk</t>
-  </si>
-  <si>
-    <t>vestibulum.nec@Seddiamlorem.net</t>
-  </si>
-  <si>
-    <t>Vestibulum.ut.eros@Duis.org</t>
-  </si>
-  <si>
-    <t>sodales.at.velit@nequeNullamnisl.org</t>
-  </si>
-  <si>
-    <t>Morbi.sit.amet@habitantmorbi.org</t>
-  </si>
-  <si>
-    <t>Proin.eget.odio@disparturientmontes.ca</t>
-  </si>
-  <si>
-    <t>Donec.tincidunt.Donec@pedeultrices.ca</t>
-  </si>
-  <si>
-    <t>vulputate@semper.co.uk</t>
-  </si>
-  <si>
-    <t>vitae.nibh@fermentumvelmauris.co.uk</t>
-  </si>
-  <si>
-    <t>dolor.quam.elementum@Donec.com</t>
-  </si>
-  <si>
-    <t>Nunc@adipiscingMauris.edu</t>
-  </si>
-  <si>
-    <t>non.cursus@auguemalesuadamalesuada.org</t>
-  </si>
-  <si>
-    <t>amet.ultricies.sem@lobortisrisus.com</t>
-  </si>
-  <si>
-    <t>lacus.Etiam.bibendum@dapibusid.edu</t>
-  </si>
-  <si>
-    <t>placerat.eget@vitaenibh.ca</t>
-  </si>
-  <si>
-    <t>vel.turpis.Aliquam@dictumProineget.com</t>
-  </si>
-  <si>
-    <t>Suspendisse.aliquet.sem@congueelitsed.ca</t>
-  </si>
-  <si>
-    <t>leo.Vivamus.nibh@risus.org</t>
-  </si>
-  <si>
-    <t>non@velitin.edu</t>
-  </si>
-  <si>
-    <t>Cras@metussit.com</t>
-  </si>
-  <si>
-    <t>neque.et@enimsit.com</t>
-  </si>
-  <si>
-    <t>Morbi.vehicula@Donec.org</t>
-  </si>
-  <si>
-    <t>amet.risus@egetvolutpat.edu</t>
-  </si>
-  <si>
-    <t>nisl.arcu@aliquet.edu</t>
-  </si>
-  <si>
-    <t>Aliquam.ultrices.iaculis@tinciduntnequevitae.net</t>
-  </si>
-  <si>
-    <t>auctor.velit.eget@at.co.uk</t>
-  </si>
-  <si>
-    <t>urna.nec@interdumfeugiat.edu</t>
-  </si>
-  <si>
-    <t>lectus.justo.eu@euneque.com</t>
-  </si>
-  <si>
-    <t>In@sociisnatoque.edu</t>
-  </si>
-  <si>
-    <t>dis@et.ca</t>
-  </si>
-  <si>
-    <t>et@atliberoMorbi.net</t>
-  </si>
-  <si>
-    <t>turpis.egestas.Aliquam@Sedeget.net</t>
-  </si>
-  <si>
-    <t>consequat@fames.co.uk</t>
-  </si>
-  <si>
-    <t>sollicitudin.adipiscing.ligula@erosNam.co.uk</t>
-  </si>
-  <si>
-    <t>Donec@arcu.org</t>
-  </si>
-  <si>
-    <t>Phasellus.at@egestasAliquam.co.uk</t>
-  </si>
-  <si>
-    <t>augue@justoeuarcu.com</t>
-  </si>
-  <si>
-    <t>amet.ornare@vehiculaPellentesque.co.uk</t>
-  </si>
-  <si>
-    <t>elit.pede@risusat.edu</t>
-  </si>
-  <si>
-    <t>eu.nibh@dui.org</t>
-  </si>
-  <si>
-    <t>eleifend.nunc@vitae.co.uk</t>
-  </si>
-  <si>
-    <t>sed@feugiatmetussit.com</t>
-  </si>
-  <si>
-    <t>Nunc.quis@nequevenenatis.ca</t>
-  </si>
-  <si>
-    <t>malesuada.ut.sem@NullaaliquetProin.edu</t>
-  </si>
-  <si>
-    <t>auctor.odio.a@auctorvelitAliquam.ca</t>
-  </si>
-  <si>
-    <t>Ut.tincidunt@eu.com</t>
-  </si>
-  <si>
-    <t>enim.nisl.elementum@arcuet.co.uk</t>
-  </si>
-  <si>
-    <t>arcu.Sed.eu@tellusNunc.com</t>
-  </si>
-  <si>
-    <t>odio.Etiam@orciconsectetuereuismod.org</t>
-  </si>
-  <si>
-    <t>egestas.Aliquam.nec@sodalesnisi.com</t>
-  </si>
-  <si>
-    <t>tellus@lobortisnisi.net</t>
-  </si>
-  <si>
-    <t>orci@tortordictumeu.co.uk</t>
-  </si>
-  <si>
-    <t>nibh.Quisque.nonummy@ametmetusAliquam.edu</t>
-  </si>
-  <si>
-    <t>justo@et.edu</t>
-  </si>
-  <si>
-    <t>at.arcu.Vestibulum@sit.co.uk</t>
-  </si>
-  <si>
-    <t>Aliquam.erat.volutpat@Fuscefermentum.ca</t>
-  </si>
-  <si>
-    <t>ac.metus@lacusQuisque.org</t>
-  </si>
-  <si>
-    <t>eget.laoreet.posuere@sodales.org</t>
-  </si>
-  <si>
-    <t>consequat@sollicitudin.org</t>
-  </si>
-  <si>
-    <t>turpis.nec@gravida.edu</t>
-  </si>
-  <si>
-    <t>massa.lobortis.ultrices@ultricesaauctor.com</t>
-  </si>
-  <si>
-    <t>Suspendisse.aliquet@etnuncQuisque.org</t>
-  </si>
-  <si>
-    <t>amet@utdolor.org</t>
-  </si>
-  <si>
-    <t>velit.Pellentesque.ultricies@auctorodio.org</t>
-  </si>
-  <si>
-    <t>sodales.Mauris.blandit@ridiculusmusProin.net</t>
-  </si>
-  <si>
-    <t>dictum@ullamcorperDuiscursus.ca</t>
-  </si>
-  <si>
-    <t>lorem.luctus@cursusvestibulumMauris.org</t>
-  </si>
-  <si>
-    <t>et.commodo.at@etultrices.org</t>
-  </si>
-  <si>
-    <t>natoque.penatibus@malesuadafames.com</t>
-  </si>
-  <si>
-    <t>Aliquam.vulputate@convallisin.net</t>
-  </si>
-  <si>
-    <t>amet@pulvinararcuet.co.uk</t>
-  </si>
-  <si>
-    <t>Nullam.suscipit@ridiculusmusAenean.org</t>
-  </si>
-  <si>
-    <t>Etiam@odio.net</t>
-  </si>
-  <si>
-    <t>blandit.Nam@dolor.co.uk</t>
-  </si>
-  <si>
-    <t>elit.pharetra.ut@velit.com</t>
-  </si>
-  <si>
-    <t>eu.odio@ipsum.net</t>
-  </si>
-  <si>
-    <t>dignissim.lacus@iaculis.com</t>
-  </si>
-  <si>
-    <t>non@semut.com</t>
-  </si>
-  <si>
-    <t>imperdiet.ornare.In@Curabiturutodio.edu</t>
-  </si>
-  <si>
-    <t>nec.imperdiet.nec@massaVestibulumaccumsan.org</t>
-  </si>
-  <si>
-    <t>Fusce.mollis.Duis@purus.net</t>
-  </si>
-  <si>
-    <t>eu.ligula.Aenean@ullamcorper.co.uk</t>
-  </si>
-  <si>
-    <t>Suspendisse@nequepellentesque.net</t>
-  </si>
-  <si>
-    <t>pede@velquam.org</t>
-  </si>
-  <si>
-    <t>nunc@ornareelit.net</t>
-  </si>
-  <si>
-    <t>Sed.malesuada@urnaetarcu.com</t>
-  </si>
-  <si>
-    <t>nisl.sem.consequat@Namac.co.uk</t>
-  </si>
-  <si>
-    <t>ac.fermentum.vel@eget.edu</t>
-  </si>
-  <si>
-    <t>Suspendisse.aliquet@nunc.com</t>
-  </si>
-  <si>
-    <t>quam.quis.diam@acmetus.co.uk</t>
-  </si>
-  <si>
-    <t>aliquet.molestie@fermentumarcuVestibulum.net</t>
-  </si>
-  <si>
-    <t>neque@vel.com</t>
-  </si>
-  <si>
-    <t>quam.Curabitur.vel@loremDonecelementum.org</t>
-  </si>
-  <si>
-    <t>egestas.urna@consectetuereuismod.ca</t>
-  </si>
-  <si>
-    <t>eu@tristiquenequevenenatis.edu</t>
-  </si>
-  <si>
-    <t>bibendum.fermentum.metus@vel.org</t>
-  </si>
-  <si>
-    <t>et@felispurus.com</t>
-  </si>
-  <si>
-    <t>sed.turpis@ametfaucibus.edu</t>
-  </si>
-  <si>
-    <t>Curabitur@Aliquamrutrumlorem.edu</t>
-  </si>
-  <si>
-    <t>risus.at@facilisisfacilisismagna.edu</t>
-  </si>
-  <si>
-    <t>vitae.sodales.nisi@lectus.net</t>
-  </si>
-  <si>
-    <t>at@velvulputate.edu</t>
-  </si>
-  <si>
-    <t>facilisis@Phaselluselit.net</t>
-  </si>
-  <si>
-    <t>tortor.nibh@iaculisodio.ca</t>
-  </si>
-  <si>
-    <t>non@posuereenim.net</t>
-  </si>
-  <si>
-    <t>Phasellus.ornare@eget.edu</t>
-  </si>
-  <si>
-    <t>iaculis@porttitortellus.co.uk</t>
-  </si>
-  <si>
-    <t>ornare.libero@Phasellusfermentum.co.uk</t>
-  </si>
-  <si>
-    <t>lacus@sagittisaugue.ca</t>
-  </si>
-  <si>
-    <t>in.cursus@dapibus.net</t>
-  </si>
-  <si>
-    <t>est.mauris.rhoncus@risus.org</t>
-  </si>
-  <si>
-    <t>Sed.dictum@eudui.ca</t>
-  </si>
-  <si>
-    <t>Lorem.ipsum.dolor@bibendum.co.uk</t>
-  </si>
-  <si>
-    <t>dui.Fusce.aliquam@QuisquevariusNam.ca</t>
-  </si>
-  <si>
-    <t>ornare@feugiat.org</t>
-  </si>
-  <si>
-    <t>lobortis.quis@magna.com</t>
-  </si>
-  <si>
-    <t>Nunc@Proinvelit.edu</t>
-  </si>
-  <si>
-    <t>lacus@lacusMaurisnon.ca</t>
-  </si>
-  <si>
-    <t>rhoncus.Donec.est@Quisqueimperdiet.edu</t>
-  </si>
-  <si>
-    <t>blandit.mattis.Cras@nequetellus.ca</t>
-  </si>
-  <si>
-    <t>eu@egestas.net</t>
-  </si>
-  <si>
-    <t>non.leo.Vivamus@idrisus.edu</t>
-  </si>
-  <si>
-    <t>cursus.purus.Nullam@nonummyFuscefermentum.net</t>
-  </si>
-  <si>
-    <t>eget.metus.eu@anteMaecenasmi.ca</t>
-  </si>
-  <si>
-    <t>ipsum.primis@vitaepurusgravida.net</t>
-  </si>
-  <si>
-    <t>Fusce.dolor@Suspendissenon.com</t>
-  </si>
-  <si>
-    <t>Proin.sed@Nullafacilisi.co.uk</t>
-  </si>
-  <si>
-    <t>accumsan.convallis.ante@magnaSuspendisse.com</t>
-  </si>
-  <si>
-    <t>cursus@dictumultricies.edu</t>
-  </si>
-  <si>
-    <t>mauris.Integer.sem@enimEtiamimperdiet.co.uk</t>
-  </si>
-  <si>
-    <t>ipsum.leo@tortordictum.net</t>
-  </si>
-  <si>
-    <t>Donec@Aeneansedpede.co.uk</t>
-  </si>
-  <si>
-    <t>Curabitur@arcuVivamus.org</t>
-  </si>
-  <si>
-    <t>ultrices.mauris.ipsum@Seddiamlorem.net</t>
-  </si>
-  <si>
-    <t>nunc@idlibero.net</t>
-  </si>
-  <si>
-    <t>nonummy@risusatfringilla.net</t>
-  </si>
-  <si>
-    <t>mattis.Cras@utpellentesqueeget.co.uk</t>
-  </si>
-  <si>
-    <t>dolor.vitae@varius.com</t>
-  </si>
-  <si>
-    <t>neque.Nullam@posuerecubiliaCurae.co.uk</t>
-  </si>
-  <si>
-    <t>a.enim.Suspendisse@anteMaecenas.ca</t>
-  </si>
-  <si>
-    <t>ligula@ametrisus.ca</t>
-  </si>
-  <si>
-    <t>eget@necorciDonec.ca</t>
-  </si>
-  <si>
-    <t>non.vestibulum.nec@Aliquamultrices.net</t>
-  </si>
-  <si>
-    <t>quam.vel@arcu.net</t>
-  </si>
-  <si>
-    <t>dignissim@nunc.org</t>
-  </si>
-  <si>
-    <t>cursus@egetmetus.ca</t>
-  </si>
-  <si>
-    <t>magnis.dis.parturient@convallis.net</t>
-  </si>
-  <si>
-    <t>in.faucibus@veliteu.com</t>
-  </si>
-  <si>
-    <t>et.tristique@hendreritconsectetuercursus.net</t>
-  </si>
-  <si>
-    <t>nulla.In@quispedePraesent.net</t>
-  </si>
-  <si>
-    <t>eu.odio@ultricies.com</t>
-  </si>
-  <si>
-    <t>quis@vel.org</t>
-  </si>
-  <si>
-    <t>montes@velit.ca</t>
-  </si>
-  <si>
-    <t>luctus@Donecatarcu.ca</t>
-  </si>
-  <si>
-    <t>ultricies.ornare.elit@etipsumcursus.com</t>
-  </si>
-  <si>
-    <t>ante.iaculis.nec@pretium.org</t>
-  </si>
-  <si>
-    <t>tempor.arcu.Vestibulum@eu.com</t>
-  </si>
-  <si>
-    <t>Sed@Loremipsumdolor.org</t>
-  </si>
-  <si>
-    <t>tincidunt.dui.augue@fermentum.ca</t>
-  </si>
-  <si>
-    <t>faucibus@aarcu.ca</t>
-  </si>
-  <si>
-    <t>aliquet.odio@diamluctus.org</t>
-  </si>
-  <si>
-    <t>ipsum.Suspendisse.non@interdumenimnon.com</t>
-  </si>
-  <si>
-    <t>sem@Donec.org</t>
-  </si>
-  <si>
-    <t>habitant@tempus.edu</t>
-  </si>
-  <si>
-    <t>ornare.libero.at@Cum.com</t>
-  </si>
-  <si>
-    <t>lacus@nequeSedeget.ca</t>
-  </si>
-  <si>
-    <t>dis.parturient@Aliquam.org</t>
-  </si>
-  <si>
-    <t>metus.In.lorem@pellentesqueSeddictum.org</t>
-  </si>
-  <si>
-    <t>mauris.a@loremtristique.com</t>
-  </si>
-  <si>
-    <t>elit@mauris.org</t>
-  </si>
-  <si>
-    <t>dignissim.pharetra@senectus.com</t>
-  </si>
-  <si>
-    <t>enim.Suspendisse@necquam.net</t>
-  </si>
-  <si>
-    <t>Duis@vulputateeu.net</t>
-  </si>
-  <si>
-    <t>tempus@amet.com</t>
-  </si>
-  <si>
-    <t>semper.tellus@non.ca</t>
-  </si>
-  <si>
-    <t>eleifend.Cras@iaculisnec.co.uk</t>
-  </si>
-  <si>
-    <t>Nullam.velit.dui@consectetuerrhoncusNullam.edu</t>
-  </si>
-  <si>
-    <t>interdum@In.co.uk</t>
-  </si>
-  <si>
-    <t>vestibulum.Mauris@eueuismod.com</t>
-  </si>
-  <si>
-    <t>Fusce@senectusetnetus.co.uk</t>
-  </si>
-  <si>
-    <t>Suspendisse@lobortis.ca</t>
-  </si>
-  <si>
-    <t>pede@libero.net</t>
-  </si>
-  <si>
-    <t>placerat@malesuada.org</t>
-  </si>
-  <si>
-    <t>auctor.quis@commodoipsumSuspendisse.edu</t>
-  </si>
-  <si>
-    <t>non.arcu.Vivamus@amet.com</t>
-  </si>
-  <si>
-    <t>In.condimentum.Donec@lobortis.co.uk</t>
-  </si>
-  <si>
-    <t>urna@Quisqueporttitoreros.net</t>
-  </si>
-  <si>
-    <t>quis.tristique@suscipit.com</t>
-  </si>
-  <si>
-    <t>consequat.auctor.nunc@Duis.ca</t>
-  </si>
-  <si>
-    <t>tincidunt.nibh@orciluctus.net</t>
-  </si>
-  <si>
-    <t>justo@dolorsit.ca</t>
-  </si>
-  <si>
-    <t>justo.Proin.non@at.edu</t>
-  </si>
-  <si>
-    <t>montes.nascetur@lobortisultrices.com</t>
-  </si>
-  <si>
-    <t>euismod.mauris.eu@ametultricies.edu</t>
-  </si>
-  <si>
-    <t>et.malesuada@gravida.net</t>
-  </si>
-  <si>
-    <t>urna.Nunc.quis@sedsemegestas.edu</t>
-  </si>
-  <si>
-    <t>amet@elit.net</t>
-  </si>
-  <si>
-    <t>Nam.nulla.magna@NullafacilisiSed.com</t>
-  </si>
-  <si>
-    <t>sollicitudin.orci.sem@orci.com</t>
-  </si>
-  <si>
-    <t>tellus@atvelit.edu</t>
-  </si>
-  <si>
-    <t>Cras@odioNam.co.uk</t>
-  </si>
-  <si>
-    <t>quis.tristique.ac@nonnisiAenean.ca</t>
-  </si>
-  <si>
-    <t>viverra.Maecenas.iaculis@diam.ca</t>
-  </si>
-  <si>
-    <t>non.enim.commodo@ornare.co.uk</t>
-  </si>
-  <si>
-    <t>a.arcu.Sed@velvenenatis.edu</t>
-  </si>
-  <si>
-    <t>amet.massa@risusatfringilla.co.uk</t>
-  </si>
-  <si>
-    <t>enim@semperetlacinia.ca</t>
-  </si>
-  <si>
-    <t>bibendum@vel.net</t>
-  </si>
-  <si>
-    <t>turpis.vitae@atvelitCras.com</t>
-  </si>
-  <si>
-    <t>vitae.odio.sagittis@atarcu.com</t>
-  </si>
-  <si>
-    <t>blandit.enim@egestas.edu</t>
-  </si>
-  <si>
-    <t>Pellentesque@Suspendisse.ca</t>
-  </si>
-  <si>
-    <t>semper.Nam@justonec.co.uk</t>
-  </si>
-  <si>
-    <t>lectus@seddolor.org</t>
-  </si>
-  <si>
-    <t>adipiscing@sagittisaugueeu.co.uk</t>
-  </si>
-  <si>
-    <t>dictum@Proin.com</t>
-  </si>
-  <si>
-    <t>neque.pellentesque.massa@velitQuisquevarius.com</t>
-  </si>
-  <si>
-    <t>suscipit.nonummy@afeugiattellus.com</t>
-  </si>
-  <si>
-    <t>tortor.nibh@Nunclaoreetlectus.co.uk</t>
-  </si>
-  <si>
-    <t>ac@diam.com</t>
-  </si>
-  <si>
-    <t>lectus@eunullaat.co.uk</t>
-  </si>
-  <si>
-    <t>sem.mollis@ametconsectetueradipiscing.ca</t>
-  </si>
-  <si>
-    <t>pharetra.felis.eget@Suspendissenon.co.uk</t>
-  </si>
-  <si>
-    <t>adipiscing.elit.Curabitur@Sednecmetus.com</t>
-  </si>
-  <si>
-    <t>magnis.dis@miloremvehicula.ca</t>
-  </si>
-  <si>
-    <t>tellus.Phasellus@Cras.net</t>
-  </si>
-  <si>
-    <t>Duis.dignissim.tempor@erosProinultrices.net</t>
-  </si>
-  <si>
-    <t>per@nequenonquam.edu</t>
-  </si>
-  <si>
-    <t>primis.in@ac.edu</t>
-  </si>
-  <si>
-    <t>a.malesuada.id@infaucibusorci.org</t>
-  </si>
-  <si>
-    <t>commodo.at.libero@luctusCurabituregestas.com</t>
-  </si>
-  <si>
-    <t>Aliquam.rutrum.lorem@adipiscing.edu</t>
-  </si>
-  <si>
-    <t>nonummy.Fusce@lobortisquispede.com</t>
-  </si>
-  <si>
-    <t>ipsum@consequat.co.uk</t>
-  </si>
-  <si>
-    <t>sodales@Morbi.net</t>
-  </si>
-  <si>
-    <t>luctus@loremfringilla.org</t>
-  </si>
-  <si>
-    <t>auctor.velit@ipsumcursusvestibulum.edu</t>
-  </si>
-  <si>
-    <t>dignissim@Sed.com</t>
-  </si>
-  <si>
-    <t>Proin@cursus.ca</t>
-  </si>
-  <si>
-    <t>euismod@elitAliquamauctor.org</t>
-  </si>
-  <si>
-    <t>at.pede.Cras@Suspendissenon.org</t>
-  </si>
-  <si>
-    <t>malesuada@aliquet.co.uk</t>
-  </si>
-  <si>
-    <t>amet.nulla@non.com</t>
-  </si>
-  <si>
-    <t>sollicitudin.orci@cursus.com</t>
-  </si>
-  <si>
-    <t>lacus@arcuCurabitur.co.uk</t>
-  </si>
-  <si>
-    <t>luctus.lobortis.Class@ametconsectetueradipiscing.com</t>
-  </si>
-  <si>
-    <t>dolor.sit.amet@laciniavitaesodales.net</t>
-  </si>
-  <si>
-    <t>blandit@utpellentesqueeget.ca</t>
-  </si>
-  <si>
-    <t>bibendum.Donec@adipiscingelit.org</t>
-  </si>
-  <si>
-    <t>montes.nascetur@dictumeleifend.edu</t>
-  </si>
-  <si>
-    <t>risus@erat.net</t>
-  </si>
-  <si>
-    <t>ligula.Donec@nonvestibulumnec.edu</t>
-  </si>
-  <si>
-    <t>nulla@ligula.ca</t>
-  </si>
-  <si>
-    <t>nulla.at.sem@aliquam.com</t>
-  </si>
-  <si>
-    <t>neque.sed.sem@Lorem.ca</t>
-  </si>
-  <si>
-    <t>metus@inlobortistellus.com</t>
-  </si>
-  <si>
-    <t>lobortis.ultrices.Vivamus@Sed.com</t>
-  </si>
-  <si>
-    <t>rutrum.Fusce.dolor@Maurisvel.net</t>
-  </si>
-  <si>
-    <t>placerat@primisin.co.uk</t>
-  </si>
-  <si>
-    <t>sit.amet.consectetuer@consequatenim.co.uk</t>
-  </si>
-  <si>
-    <t>magna.nec@eleifend.ca</t>
-  </si>
-  <si>
-    <t>enim.commodo@famesac.co.uk</t>
-  </si>
-  <si>
-    <t>orci.adipiscing.non@cursus.ca</t>
-  </si>
-  <si>
-    <t>est.tempor.bibendum@quamPellentesquehabitant.edu</t>
-  </si>
-  <si>
-    <t>tellus.id.nunc@nonummyac.edu</t>
-  </si>
-  <si>
-    <t>laoreet@et.com</t>
-  </si>
-  <si>
-    <t>eu.tellus@velitSed.edu</t>
-  </si>
-  <si>
-    <t>Curabitur.egestas@sapienmolestie.net</t>
-  </si>
-  <si>
-    <t>dui.Fusce@nec.com</t>
-  </si>
-  <si>
-    <t>vitae.dolor.Donec@elitpede.org</t>
-  </si>
-  <si>
-    <t>semper@Nuncullamcorpervelit.edu</t>
-  </si>
-  <si>
-    <t>at.libero@eusemPellentesque.net</t>
-  </si>
-  <si>
-    <t>ac@ornaresagittisfelis.org</t>
-  </si>
-  <si>
-    <t>lobortis.quis@AliquamnislNulla.ca</t>
-  </si>
-  <si>
-    <t>tincidunt.vehicula.risus@necmalesuada.edu</t>
-  </si>
-  <si>
-    <t>elementum@lacus.co.uk</t>
-  </si>
-  <si>
-    <t>adipiscing.elit.Aliquam@blanditviverra.edu</t>
-  </si>
-  <si>
-    <t>arcu@Curae.com</t>
-  </si>
-  <si>
-    <t>convallis.est@afeugiat.edu</t>
-  </si>
-  <si>
-    <t>vel@natoque.edu</t>
-  </si>
-  <si>
-    <t>libero.et@faucibus.ca</t>
-  </si>
-  <si>
-    <t>arcu.Vestibulum.ut@diam.net</t>
-  </si>
-  <si>
-    <t>Pellentesque.ut@Proin.co.uk</t>
-  </si>
-  <si>
-    <t>ipsum.dolor.sit@utquam.ca</t>
-  </si>
-  <si>
-    <t>tristique.pharetra@In.com</t>
-  </si>
-  <si>
-    <t>a.auctor.non@tristique.edu</t>
-  </si>
-  <si>
-    <t>Mauris@erat.net</t>
-  </si>
-  <si>
-    <t>pharetra.sed.hendrerit@vulputate.ca</t>
-  </si>
-  <si>
-    <t>ut.odio@sedtortorInteger.co.uk</t>
-  </si>
-  <si>
-    <t>mollis@est.ca</t>
-  </si>
-  <si>
-    <t>faucibus.leo@sed.net</t>
-  </si>
-  <si>
-    <t>magna.nec@aliquetvelvulputate.co.uk</t>
-  </si>
-  <si>
-    <t>Valido</t>
-  </si>
-  <si>
-    <t>Invalido</t>
+    <t>IMPERDIET@PHASELLUSFERMENTUMCONVALLIS.CO.UK</t>
+  </si>
+  <si>
+    <t>DUIS@BIBENDUMULLAMCORPERDUIS.COM</t>
+  </si>
+  <si>
+    <t>NAM.INTERDUM.ENIM@DISPARTURIENTMONTES.ORG</t>
+  </si>
+  <si>
+    <t>HABITANT.MORBI@LOREM.CO.UK</t>
+  </si>
+  <si>
+    <t>SCELERISQUE@IMPERDIET.EDU</t>
+  </si>
+  <si>
+    <t>IPSUM.PHASELLUS.VITAE@ADUI.ORG</t>
+  </si>
+  <si>
+    <t>URNA.JUSTO.FAUCIBUS@FRINGILLACURSUS.NET</t>
+  </si>
+  <si>
+    <t>ARCU@INORNARESAGITTIS.CA</t>
+  </si>
+  <si>
+    <t>ANTE.VIVAMUS@AC.EDU</t>
+  </si>
+  <si>
+    <t>NON.CURSUS@SEMMAGNANEC.COM</t>
+  </si>
+  <si>
+    <t>ELIT.ETIAM@SIT.COM</t>
+  </si>
+  <si>
+    <t>ET.EROS@NULLAVULPUTATEDUI.CA</t>
+  </si>
+  <si>
+    <t>AMET.ORCI@MAGNISDISPARTURIENT.ORG</t>
+  </si>
+  <si>
+    <t>NEQUE.TELLUS.IMPERDIET@MAGNA.CO.UK</t>
+  </si>
+  <si>
+    <t>ALIQUAM.EROS@FELISNULLATEMPOR.EDU</t>
+  </si>
+  <si>
+    <t>NON.MAGNA.NAM@GRAVIDANUNC.COM</t>
+  </si>
+  <si>
+    <t>SEMPER.NAM.TEMPOR@MONTES.EDU</t>
+  </si>
+  <si>
+    <t>CONSECTETUER.ADIPISCING.ELIT@PORTTITOR.COM</t>
+  </si>
+  <si>
+    <t>SAPIEN.MOLESTIE@VITAEERATVEL.COM</t>
+  </si>
+  <si>
+    <t>MORBI.QUIS@ATAUGUE.CA</t>
+  </si>
+  <si>
+    <t>DAPIBUS@PURUS.ORG</t>
+  </si>
+  <si>
+    <t>ET.LIBERO@LIBEROAT.NET</t>
+  </si>
+  <si>
+    <t>EGESTAS.LACINIA@BLANDIT.CO.UK</t>
+  </si>
+  <si>
+    <t>MI@ALIQUETNECIMPERDIET.CO.UK</t>
+  </si>
+  <si>
+    <t>PROIN.MI.ALIQUAM@ALIQUAMFRINGILLACURSUS.COM</t>
+  </si>
+  <si>
+    <t>SEM@RUTRUM.CO.UK</t>
+  </si>
+  <si>
+    <t>PEDE.ULTRICES.A@DOLORDAPIBUS.ORG</t>
+  </si>
+  <si>
+    <t>LEO.MORBI.NEQUE@MASSARUTRUMMAGNA.CA</t>
+  </si>
+  <si>
+    <t>VESTIBULUM.ACCUMSAN@SCELERISQUENEQUENULLAM.CA</t>
+  </si>
+  <si>
+    <t>ALIQUAM@NISLSEM.COM</t>
+  </si>
+  <si>
+    <t>FUSCE@DOLORQUISQUE.ORG</t>
+  </si>
+  <si>
+    <t>QUISQUE.LIBERO@SEMPER.COM</t>
+  </si>
+  <si>
+    <t>NON@ORNAREEGESTASLIGULA.CO.UK</t>
+  </si>
+  <si>
+    <t>METUS.FACILISIS.LOREM@AMETCONSECTETUERADIPISCING.CA</t>
+  </si>
+  <si>
+    <t>LIGULA.NULLAM.ENIM@NISI.COM</t>
+  </si>
+  <si>
+    <t>NATOQUE@AUCTORQUISTRISTIQUE.CA</t>
+  </si>
+  <si>
+    <t>SEMPER@ETIAMLAOREET.NET</t>
+  </si>
+  <si>
+    <t>EGESTAS.LIGULA@MAURISMAGNA.EDU</t>
+  </si>
+  <si>
+    <t>TEMPUS@LIBEROINTEGER.NET</t>
+  </si>
+  <si>
+    <t>ID.BLANDIT.AT@NONUMMYAC.CA</t>
+  </si>
+  <si>
+    <t>CRAS@EUNIBHVULPUTATE.CO.UK</t>
+  </si>
+  <si>
+    <t>AUGUE@ANTEDICTUMCURSUS.EDU</t>
+  </si>
+  <si>
+    <t>SAGITTIS@VESTIBULUMACCUMSANNEQUE.ORG</t>
+  </si>
+  <si>
+    <t>CONVALLIS.DOLOR@DIGNISSIMPHARETRANAM.ORG</t>
+  </si>
+  <si>
+    <t>ETIAM.GRAVIDA.MOLESTIE@NISLMAECENAS.CA</t>
+  </si>
+  <si>
+    <t>IMPERDIET.ULLAMCORPER.DUIS@NISICUMSOCIIS.CO.UK</t>
+  </si>
+  <si>
+    <t>MAGNA@PEDESAGITTIS.CO.UK</t>
+  </si>
+  <si>
+    <t>TELLUS.PHASELLUS.ELIT@ETLIBEROPROIN.EDU</t>
+  </si>
+  <si>
+    <t>MOLLIS@VARIUSULTRICES.CA</t>
+  </si>
+  <si>
+    <t>ENIM.NUNC@SUSPENDISSEACMETUS.EDU</t>
+  </si>
+  <si>
+    <t>EROS.NON@PELLENTESQUEEGETDICTUM.NET</t>
+  </si>
+  <si>
+    <t>DOLOR.SIT@MAGNALOREMIPSUM.CA</t>
+  </si>
+  <si>
+    <t>ALIQUAM.EU@PURUS.COM</t>
+  </si>
+  <si>
+    <t>PORTTITOR@ACFACILISIS.ORG</t>
+  </si>
+  <si>
+    <t>AC@VEHICULAET.CA</t>
+  </si>
+  <si>
+    <t>SUSPENDISSE.ELEIFEND@MAGNIS.CA</t>
+  </si>
+  <si>
+    <t>INTERDUM.NUNC.SOLLICITUDIN@COMMODOAUCTOR.ORG</t>
+  </si>
+  <si>
+    <t>LAOREET.IPSUM@ARCUSEDET.EDU</t>
+  </si>
+  <si>
+    <t>PROIN.DOLOR@NUNC.EDU</t>
+  </si>
+  <si>
+    <t>RIDICULUS@NAM.EDU</t>
+  </si>
+  <si>
+    <t>NUNC@INTERDUMNUNCSOLLICITUDIN.ORG</t>
+  </si>
+  <si>
+    <t>NULLA.EGET@PEDENUNC.NET</t>
+  </si>
+  <si>
+    <t>SAGITTIS@FERMENTUMARCU.EDU</t>
+  </si>
+  <si>
+    <t>LOBORTIS.MAURIS.SUSPENDISSE@EST.CO.UK</t>
+  </si>
+  <si>
+    <t>MAURIS.VESTIBULUM.NEQUE@ELEIFENDCRAS.EDU</t>
+  </si>
+  <si>
+    <t>SEM@NUNC.ORG</t>
+  </si>
+  <si>
+    <t>DIAM.AT.PRETIUM@SED.CO.UK</t>
+  </si>
+  <si>
+    <t>AMET@SOCIOSQUAD.COM</t>
+  </si>
+  <si>
+    <t>SED.ET.LIBERO@RISUSATFRINGILLA.COM</t>
+  </si>
+  <si>
+    <t>NEC.LEO@DIAMLOREM.EDU</t>
+  </si>
+  <si>
+    <t>IPSUM@TEMPOR.CA</t>
+  </si>
+  <si>
+    <t>VELIT.EGET.LAOREET@CONGUE.CA</t>
+  </si>
+  <si>
+    <t>CURSUS.A.ENIM@DICTUMPHASELLUSIN.CA</t>
+  </si>
+  <si>
+    <t>DUIS.SIT.AMET@AENEANEUISMODMAURIS.ORG</t>
+  </si>
+  <si>
+    <t>EST.MAURIS.EU@VITAEODIOSAGITTIS.EDU</t>
+  </si>
+  <si>
+    <t>ARCU.IACULIS@NEQUE.CA</t>
+  </si>
+  <si>
+    <t>MOLESTIE.IN.TEMPUS@ULTRICIESORNARE.ORG</t>
+  </si>
+  <si>
+    <t>NEQUE@PELLENTESQUE.EDU</t>
+  </si>
+  <si>
+    <t>PRAESENT@QUAM.CO.UK</t>
+  </si>
+  <si>
+    <t>LECTUS@AENIM.EDU</t>
+  </si>
+  <si>
+    <t>SED.CONSEQUAT.AUCTOR@ETMALESUADA.CA</t>
+  </si>
+  <si>
+    <t>LACINIA.MATTIS@RISUS.CO.UK</t>
+  </si>
+  <si>
+    <t>MAURIS@COMMODO.EDU</t>
+  </si>
+  <si>
+    <t>NEC.DIAM@MORBINEQUE.NET</t>
+  </si>
+  <si>
+    <t>NAM.AC.NULLA@EU.CO.UK</t>
+  </si>
+  <si>
+    <t>ELEIFEND.NEC.MALESUADA@SEMEGESTAS.ORG</t>
+  </si>
+  <si>
+    <t>VEL@TELLUSSEMMOLLIS.NET</t>
+  </si>
+  <si>
+    <t>NIBH@AC.CO.UK</t>
+  </si>
+  <si>
+    <t>LOREM.IPSUM.SODALES@MOLESTIE.CA</t>
+  </si>
+  <si>
+    <t>PHASELLUS.AT.AUGUE@FACILISIS.NET</t>
+  </si>
+  <si>
+    <t>NULLA@FUSCEMOLLIS.EDU</t>
+  </si>
+  <si>
+    <t>TELLUS.NUNC.LECTUS@MOLESTIEARCU.NET</t>
+  </si>
+  <si>
+    <t>TEMPUS.RISUS.DONEC@SEMUT.EDU</t>
+  </si>
+  <si>
+    <t>CONSEQUAT.ENIM@DAPIBUSLIGULA.EDU</t>
+  </si>
+  <si>
+    <t>VELIT.EGESTAS.LACINIA@SEDETLIBERO.CA</t>
+  </si>
+  <si>
+    <t>NEC@LOBORTISNISI.CO.UK</t>
+  </si>
+  <si>
+    <t>VIVAMUS.NON@INFAUCIBUSORCI.CA</t>
+  </si>
+  <si>
+    <t>LITORA.TORQUENT@ERAT.ORG</t>
+  </si>
+  <si>
+    <t>SEMPER.TELLUS.ID@VARIUSULTRICES.NET</t>
+  </si>
+  <si>
+    <t>NOSTRA.PER@CRAS.COM</t>
+  </si>
+  <si>
+    <t>CURSUS.NON@TEMPUSSCELERISQUE.ORG</t>
+  </si>
+  <si>
+    <t>ET@LOBORTIS.CO.UK</t>
+  </si>
+  <si>
+    <t>ULTRICIES.LIGULA.NULLAM@CRASPELLENTESQUESED.ORG</t>
+  </si>
+  <si>
+    <t>MATTIS.INTEGER.EU@PELLENTESQUEHABITANTMORBI.CO.UK</t>
+  </si>
+  <si>
+    <t>LUCTUS.ET@VELITEGESTASLACINIA.ORG</t>
+  </si>
+  <si>
+    <t>CRAS.SED@NECURNA.CO.UK</t>
+  </si>
+  <si>
+    <t>SAPIEN.IMPERDIET.ORNARE@INHENDRERIT.COM</t>
+  </si>
+  <si>
+    <t>JUSTO.EU.ARCU@ODIOVEL.CA</t>
+  </si>
+  <si>
+    <t>AUGUE@ENIMSUSPENDISSE.CO.UK</t>
+  </si>
+  <si>
+    <t>IN.FAUCIBUS.ORCI@PHASELLUSNULLA.NET</t>
+  </si>
+  <si>
+    <t>LACUS@SOCIISNATOQUE.ORG</t>
+  </si>
+  <si>
+    <t>ULTRICIES.ADIPISCING.ENIM@VIVERRAMAECENAS.CO.UK</t>
+  </si>
+  <si>
+    <t>SED@MAGNAPHASELLUS.CA</t>
+  </si>
+  <si>
+    <t>ULTRICES.VIVAMUS@ULLAMCORPERMAGNA.EDU</t>
+  </si>
+  <si>
+    <t>ADIPISCING.ELIT@MUS.ORG</t>
+  </si>
+  <si>
+    <t>FACILISIS.FACILISIS@MATTIS.COM</t>
+  </si>
+  <si>
+    <t>ETIAM.VESTIBULUM@ORNAREEGESTASLIGULA.COM</t>
+  </si>
+  <si>
+    <t>DIAM@SEDNULLA.CO.UK</t>
+  </si>
+  <si>
+    <t>DIAM.LOREM.AUCTOR@PARTURIENTMONTES.CO.UK</t>
+  </si>
+  <si>
+    <t>ULTRICES@PELLENTESQUEMASSALOBORTIS.COM</t>
+  </si>
+  <si>
+    <t>SED.PEDE@UT.CO.UK</t>
+  </si>
+  <si>
+    <t>LIBERO@IPSUMDOLOR.COM</t>
+  </si>
+  <si>
+    <t>ID.ERAT@ETNUNCQUISQUE.COM</t>
+  </si>
+  <si>
+    <t>NIBH.SIT@EST.EDU</t>
+  </si>
+  <si>
+    <t>FERMENTUM.CONVALLIS@LOBORTISNISI.COM</t>
+  </si>
+  <si>
+    <t>LACUS@FACILISIS.CO.UK</t>
+  </si>
+  <si>
+    <t>TURPIS@DUIS.COM</t>
+  </si>
+  <si>
+    <t>ACCUMSAN@IDMOLLISNEC.EDU</t>
+  </si>
+  <si>
+    <t>AC@ENIM.EDU</t>
+  </si>
+  <si>
+    <t>SENECTUS@ENIMSED.CO.UK</t>
+  </si>
+  <si>
+    <t>ALIQUET@ETIAM.NET</t>
+  </si>
+  <si>
+    <t>ORNARE.EGESTAS.LIGULA@METUSFACILISIS.CO.UK</t>
+  </si>
+  <si>
+    <t>PROIN.SED.TURPIS@CURSUSINTEGER.COM</t>
+  </si>
+  <si>
+    <t>SIT.AMET.ULTRICIES@DONEC.COM</t>
+  </si>
+  <si>
+    <t>VESTIBULUM.NEQUE@EU.CA</t>
+  </si>
+  <si>
+    <t>UT@PELLENTESQUEMASSALOBORTIS.NET</t>
+  </si>
+  <si>
+    <t>ALIQUAM.ADIPISCING@VIVAMUSSITAMET.COM</t>
+  </si>
+  <si>
+    <t>VARIUS.ULTRICES.MAURIS@DOLORNONUMMY.EDU</t>
+  </si>
+  <si>
+    <t>EGET@FUSCEDIAM.ORG</t>
+  </si>
+  <si>
+    <t>CURSUS.VESTIBULUM@LIGULAELIT.CA</t>
+  </si>
+  <si>
+    <t>CURSUS@SEMPERDUI.NET</t>
+  </si>
+  <si>
+    <t>CONSEQUAT.ENIM@NIBHDOLOR.EDU</t>
+  </si>
+  <si>
+    <t>PRETIUM.ALIQUET.METUS@SED.CA</t>
+  </si>
+  <si>
+    <t>DICTUM.MAGNA.UT@PHASELLUSELIT.CA</t>
+  </si>
+  <si>
+    <t>VEL.VULPUTATE.EU@ACFEUGIAT.ORG</t>
+  </si>
+  <si>
+    <t>ORNARE@INMI.EDU</t>
+  </si>
+  <si>
+    <t>DAPIBUS.QUAM@ETEROS.CA</t>
+  </si>
+  <si>
+    <t>DOLOR.NONUMMY@IDMAGNAET.COM</t>
+  </si>
+  <si>
+    <t>MAURIS.BLANDIT.ENIM@LIBEROATAUCTOR.CO.UK</t>
+  </si>
+  <si>
+    <t>VELIT.EGET@NOSTRAPER.EDU</t>
+  </si>
+  <si>
+    <t>AUGUE.PORTTITOR.INTERDUM@NECTEMPUSSCELERISQUE.COM</t>
+  </si>
+  <si>
+    <t>DUIS@LECTUS.COM</t>
+  </si>
+  <si>
+    <t>PLACERAT.AUGUE@AUGUEEU.EDU</t>
+  </si>
+  <si>
+    <t>VIVAMUS.NON.LOREM@ELEIFENDNON.CA</t>
+  </si>
+  <si>
+    <t>MAURIS@FAUCIBUSIDLIBERO.ORG</t>
+  </si>
+  <si>
+    <t>MATTIS@AT.CA</t>
+  </si>
+  <si>
+    <t>PURUS@ALIQUAM.CA</t>
+  </si>
+  <si>
+    <t>ET.EROS.PROIN@TRISTIQUE.NET</t>
+  </si>
+  <si>
+    <t>DUIS.ELEMENTUM@RUTRUMNON.EDU</t>
+  </si>
+  <si>
+    <t>LOREM@MAGNATELLUS.COM</t>
+  </si>
+  <si>
+    <t>LEO.VIVAMUS@RISUSDUISA.ORG</t>
+  </si>
+  <si>
+    <t>MORBI@CURABITUR.EDU</t>
+  </si>
+  <si>
+    <t>INTEGER@AC.NET</t>
+  </si>
+  <si>
+    <t>SED@CRASVEHICULAALIQUET.CO.UK</t>
+  </si>
+  <si>
+    <t>INTERDUM.SED.AUCTOR@IACULISALIQUETDIAM.ORG</t>
+  </si>
+  <si>
+    <t>VENENATIS.VEL.FAUCIBUS@IMPERDIET.CO.UK</t>
+  </si>
+  <si>
+    <t>AC.LIBERO.NEC@ALIQUAMADIPISCINGLOBORTIS.EDU</t>
+  </si>
+  <si>
+    <t>QUIS.PEDE@CURABITURDICTUM.EDU</t>
+  </si>
+  <si>
+    <t>EUISMOD.IN@DOLORNULLA.CA</t>
+  </si>
+  <si>
+    <t>LOBORTIS.RISUS.IN@TELLUS.ORG</t>
+  </si>
+  <si>
+    <t>CURSUS@ACCUMSANNEQUEET.NET</t>
+  </si>
+  <si>
+    <t>LEO.CRAS.VEHICULA@TEMPUSMAURIS.CO.UK</t>
+  </si>
+  <si>
+    <t>MAURIS.ERAT@QUIS.CO.UK</t>
+  </si>
+  <si>
+    <t>EGET.VOLUTPAT.ORNARE@DICTUMEUELEIFEND.ORG</t>
+  </si>
+  <si>
+    <t>AC.MI.ELEIFEND@NIBHDOLOR.ORG</t>
+  </si>
+  <si>
+    <t>ACCUMSAN.CONVALLIS@SEMMAGNANEC.ORG</t>
+  </si>
+  <si>
+    <t>PARTURIENT@MORBI.ORG</t>
+  </si>
+  <si>
+    <t>FUSCE.FEUGIAT.LOREM@CONSEQUAT.ORG</t>
+  </si>
+  <si>
+    <t>SIT@URNAET.ORG</t>
+  </si>
+  <si>
+    <t>VARIUS@PHASELLUSINFELIS.NET</t>
+  </si>
+  <si>
+    <t>SIT@VARIUS.NET</t>
+  </si>
+  <si>
+    <t>VITAE@VULPUTATE.CO.UK</t>
+  </si>
+  <si>
+    <t>VEL.QUAM.DIGNISSIM@LIBEROPROINSED.COM</t>
+  </si>
+  <si>
+    <t>ENIM.CURABITUR.MASSA@SEMUTDOLOR.NET</t>
+  </si>
+  <si>
+    <t>ODIO.SEMPER@NAMACNULLA.COM</t>
+  </si>
+  <si>
+    <t>VEL.QUAM.DIGNISSIM@DAPIBUS.CA</t>
+  </si>
+  <si>
+    <t>NEC.TEMPUS.MAURIS@EGESTAS.NET</t>
+  </si>
+  <si>
+    <t>ID.SAPIEN.CRAS@ETIAMVESTIBULUM.EDU</t>
+  </si>
+  <si>
+    <t>ENIM.ETIAM@SEMPER.EDU</t>
+  </si>
+  <si>
+    <t>TINCIDUNT@SAPIEN.CA</t>
+  </si>
+  <si>
+    <t>LEO.IN.LOBORTIS@MORBI.CA</t>
+  </si>
+  <si>
+    <t>MAGNA@NULLAMFEUGIATPLACERAT.CA</t>
+  </si>
+  <si>
+    <t>NIBH.DONEC.EST@VULPUTATE.ORG</t>
+  </si>
+  <si>
+    <t>FAUCIBUS.ORCI.LUCTUS@EST.ORG</t>
+  </si>
+  <si>
+    <t>CURABITUR.VEL@RISUSATFRINGILLA.COM</t>
+  </si>
+  <si>
+    <t>VITAE.POSUERE@EGESTASLIGULA.NET</t>
+  </si>
+  <si>
+    <t>SED.DIAM.LOREM@EUNEQUE.CA</t>
+  </si>
+  <si>
+    <t>RISUS.DONEC@NASCETURRIDICULUS.ORG</t>
+  </si>
+  <si>
+    <t>CRAS.SED@PHARETRA.ORG</t>
+  </si>
+  <si>
+    <t>IN.CONSECTETUER.IPSUM@POSUERE.NET</t>
+  </si>
+  <si>
+    <t>QUISQUE.LIBERO@CONSECTETUER.CA</t>
+  </si>
+  <si>
+    <t>NISL.ELEMENTUM.PURUS@ADIPISCINGELITALIQUAM.CA</t>
+  </si>
+  <si>
+    <t>LACUS@NEQUESEDEGET.EDU</t>
+  </si>
+  <si>
+    <t>VITAE@IDRISUS.CA</t>
+  </si>
+  <si>
+    <t>ARCU@SEDORCI.NET</t>
+  </si>
+  <si>
+    <t>IN.NEC@SCELERISQUENEQUENULLAM.ORG</t>
+  </si>
+  <si>
+    <t>SEMPER.RUTRUM@PEDENUNC.CA</t>
+  </si>
+  <si>
+    <t>QUISQUE@PEDENEC.CA</t>
+  </si>
+  <si>
+    <t>AENEAN.EGESTAS@PELLENTESQUEUTIPSUM.ORG</t>
+  </si>
+  <si>
+    <t>ALIQUAM@METUSFACILISIS.EDU</t>
+  </si>
+  <si>
+    <t>ELIT.ERAT.VITAE@EU.ORG</t>
+  </si>
+  <si>
+    <t>AMET.ANTE@TURPISNULLA.COM</t>
+  </si>
+  <si>
+    <t>ID@FRINGILLA.NET</t>
+  </si>
+  <si>
+    <t>DONEC@NIBH.CO.UK</t>
+  </si>
+  <si>
+    <t>AUGUE.EU@PROINNISL.CO.UK</t>
+  </si>
+  <si>
+    <t>A.SCELERISQUE@SEMELIT.NET</t>
+  </si>
+  <si>
+    <t>NUNC.SED@TRISTIQUE.EDU</t>
+  </si>
+  <si>
+    <t>SEM.PELLENTESQUE.UT@NETUS.ORG</t>
+  </si>
+  <si>
+    <t>NULLA@INDOLORFUSCE.CO.UK</t>
+  </si>
+  <si>
+    <t>LACUS.QUISQUE@AMET.COM</t>
+  </si>
+  <si>
+    <t>DONEC.CONSECTETUER.MAURIS@VENENATISAMAGNA.CA</t>
+  </si>
+  <si>
+    <t>FELIS.ADIPISCING.FRINGILLA@VULPUTATEPOSUERE.EDU</t>
+  </si>
+  <si>
+    <t>DOLOR.VITAE@ARCU.ORG</t>
+  </si>
+  <si>
+    <t>ALIQUAM@LOREM.EDU</t>
+  </si>
+  <si>
+    <t>AUCTOR.QUIS@RISUSDONECEGESTAS.NET</t>
+  </si>
+  <si>
+    <t>TELLUS.JUSTO.SIT@ELEMENTUM.CA</t>
+  </si>
+  <si>
+    <t>UT.MI@NULLA.NET</t>
+  </si>
+  <si>
+    <t>DIAM.PROIN@SED.CA</t>
+  </si>
+  <si>
+    <t>ET.MAGNIS@CURABITURUTODIO.CO.UK</t>
+  </si>
+  <si>
+    <t>CURSUS.VESTIBULUM.MAURIS@VITAEPURUSGRAVIDA.COM</t>
+  </si>
+  <si>
+    <t>ERAT@A.ORG</t>
+  </si>
+  <si>
+    <t>NIBH@LEOINLOBORTIS.CO.UK</t>
+  </si>
+  <si>
+    <t>DUI.FUSCE@SCELERISQUE.NET</t>
+  </si>
+  <si>
+    <t>IMPERDIET@FAUCIBUSLEOIN.NET</t>
+  </si>
+  <si>
+    <t>ORCI.UT@DOLORFUSCEFEUGIAT.NET</t>
+  </si>
+  <si>
+    <t>LOBORTIS@UTMIDUIS.CO.UK</t>
+  </si>
+  <si>
+    <t>A@UT.ORG</t>
+  </si>
+  <si>
+    <t>IACULIS.LACUS@ADUICRAS.COM</t>
+  </si>
+  <si>
+    <t>PENATIBUS@EGESTAS.EDU</t>
+  </si>
+  <si>
+    <t>ADIPISCING.FRINGILLA@LUCTUSUT.CO.UK</t>
+  </si>
+  <si>
+    <t>PRAESENT.EU@COMMODOHENDRERIT.COM</t>
+  </si>
+  <si>
+    <t>ANTE@AUGUEEUTEMPOR.COM</t>
+  </si>
+  <si>
+    <t>FUSCE.MOLLIS.DUIS@TINCIDUNT.COM</t>
+  </si>
+  <si>
+    <t>DUI.FUSCE@NULLA.CO.UK</t>
+  </si>
+  <si>
+    <t>IACULIS.ODIO@NEC.CA</t>
+  </si>
+  <si>
+    <t>VEHICULA.ALIQUET@FELISPURUSAC.NET</t>
+  </si>
+  <si>
+    <t>MOLESTIE@INTEGERVITAENIBH.COM</t>
+  </si>
+  <si>
+    <t>VESTIBULUM@DUISMIENIM.NET</t>
+  </si>
+  <si>
+    <t>VULPUTATE.POSUERE@SCELERISQUELOREMIPSUM.ORG</t>
+  </si>
+  <si>
+    <t>AT.AUCTOR@ANTEDICTUM.EDU</t>
+  </si>
+  <si>
+    <t>ULLAMCORPER.DUIS.CURSUS@QUAMDIGNISSIM.ORG</t>
+  </si>
+  <si>
+    <t>ET@COMMODOAUCTORVELIT.COM</t>
+  </si>
+  <si>
+    <t>MAURIS@LIGULA.COM</t>
+  </si>
+  <si>
+    <t>MAURIS.RHONCUS.ID@SAGITTISNULLAMVITAE.CO.UK</t>
+  </si>
+  <si>
+    <t>FACILISIS.EGET.IPSUM@MAURISNULLAINTEGER.EDU</t>
+  </si>
+  <si>
+    <t>NON.QUAM@NECORCI.CO.UK</t>
+  </si>
+  <si>
+    <t>SED@LOBORTISNISI.NET</t>
+  </si>
+  <si>
+    <t>ALIQUET.MAGNA.A@VELITINALIQUET.CA</t>
+  </si>
+  <si>
+    <t>RHONCUS.NULLAM.VELIT@RISUSODIOAUCTOR.EDU</t>
+  </si>
+  <si>
+    <t>NON.NISI@NISLARCU.ORG</t>
+  </si>
+  <si>
+    <t>MUS.PROIN@LIGULA.EDU</t>
+  </si>
+  <si>
+    <t>VITAE@ANTE.CO.UK</t>
+  </si>
+  <si>
+    <t>VESTIBULUM.NEC@SEDDIAMLOREM.NET</t>
+  </si>
+  <si>
+    <t>VESTIBULUM.UT.EROS@DUIS.ORG</t>
+  </si>
+  <si>
+    <t>SODALES.AT.VELIT@NEQUENULLAMNISL.ORG</t>
+  </si>
+  <si>
+    <t>MORBI.SIT.AMET@HABITANTMORBI.ORG</t>
+  </si>
+  <si>
+    <t>PROIN.EGET.ODIO@DISPARTURIENTMONTES.CA</t>
+  </si>
+  <si>
+    <t>DONEC.TINCIDUNT.DONEC@PEDEULTRICES.CA</t>
+  </si>
+  <si>
+    <t>VULPUTATE@SEMPER.CO.UK</t>
+  </si>
+  <si>
+    <t>VITAE.NIBH@FERMENTUMVELMAURIS.CO.UK</t>
+  </si>
+  <si>
+    <t>DOLOR.QUAM.ELEMENTUM@DONEC.COM</t>
+  </si>
+  <si>
+    <t>NUNC@ADIPISCINGMAURIS.EDU</t>
+  </si>
+  <si>
+    <t>NON.CURSUS@AUGUEMALESUADAMALESUADA.ORG</t>
+  </si>
+  <si>
+    <t>AMET.ULTRICIES.SEM@LOBORTISRISUS.COM</t>
+  </si>
+  <si>
+    <t>LACUS.ETIAM.BIBENDUM@DAPIBUSID.EDU</t>
+  </si>
+  <si>
+    <t>PLACERAT.EGET@VITAENIBH.CA</t>
+  </si>
+  <si>
+    <t>VEL.TURPIS.ALIQUAM@DICTUMPROINEGET.COM</t>
+  </si>
+  <si>
+    <t>SUSPENDISSE.ALIQUET.SEM@CONGUEELITSED.CA</t>
+  </si>
+  <si>
+    <t>LEO.VIVAMUS.NIBH@RISUS.ORG</t>
+  </si>
+  <si>
+    <t>NON@VELITIN.EDU</t>
+  </si>
+  <si>
+    <t>CRAS@METUSSIT.COM</t>
+  </si>
+  <si>
+    <t>NEQUE.ET@ENIMSIT.COM</t>
+  </si>
+  <si>
+    <t>MORBI.VEHICULA@DONEC.ORG</t>
+  </si>
+  <si>
+    <t>AMET.RISUS@EGETVOLUTPAT.EDU</t>
+  </si>
+  <si>
+    <t>NISL.ARCU@ALIQUET.EDU</t>
+  </si>
+  <si>
+    <t>ALIQUAM.ULTRICES.IACULIS@TINCIDUNTNEQUEVITAE.NET</t>
+  </si>
+  <si>
+    <t>AUCTOR.VELIT.EGET@AT.CO.UK</t>
+  </si>
+  <si>
+    <t>URNA.NEC@INTERDUMFEUGIAT.EDU</t>
+  </si>
+  <si>
+    <t>LECTUS.JUSTO.EU@EUNEQUE.COM</t>
+  </si>
+  <si>
+    <t>IN@SOCIISNATOQUE.EDU</t>
+  </si>
+  <si>
+    <t>DIS@ET.CA</t>
+  </si>
+  <si>
+    <t>ET@ATLIBEROMORBI.NET</t>
+  </si>
+  <si>
+    <t>TURPIS.EGESTAS.ALIQUAM@SEDEGET.NET</t>
+  </si>
+  <si>
+    <t>CONSEQUAT@FAMES.CO.UK</t>
+  </si>
+  <si>
+    <t>SOLLICITUDIN.ADIPISCING.LIGULA@EROSNAM.CO.UK</t>
+  </si>
+  <si>
+    <t>DONEC@ARCU.ORG</t>
+  </si>
+  <si>
+    <t>PHASELLUS.AT@EGESTASALIQUAM.CO.UK</t>
+  </si>
+  <si>
+    <t>AUGUE@JUSTOEUARCU.COM</t>
+  </si>
+  <si>
+    <t>AMET.ORNARE@VEHICULAPELLENTESQUE.CO.UK</t>
+  </si>
+  <si>
+    <t>ELIT.PEDE@RISUSAT.EDU</t>
+  </si>
+  <si>
+    <t>EU.NIBH@DUI.ORG</t>
+  </si>
+  <si>
+    <t>ELEIFEND.NUNC@VITAE.CO.UK</t>
+  </si>
+  <si>
+    <t>SED@FEUGIATMETUSSIT.COM</t>
+  </si>
+  <si>
+    <t>NUNC.QUIS@NEQUEVENENATIS.CA</t>
+  </si>
+  <si>
+    <t>MALESUADA.UT.SEM@NULLAALIQUETPROIN.EDU</t>
+  </si>
+  <si>
+    <t>AUCTOR.ODIO.A@AUCTORVELITALIQUAM.CA</t>
+  </si>
+  <si>
+    <t>UT.TINCIDUNT@EU.COM</t>
+  </si>
+  <si>
+    <t>ENIM.NISL.ELEMENTUM@ARCUET.CO.UK</t>
+  </si>
+  <si>
+    <t>ARCU.SED.EU@TELLUSNUNC.COM</t>
+  </si>
+  <si>
+    <t>ODIO.ETIAM@ORCICONSECTETUEREUISMOD.ORG</t>
+  </si>
+  <si>
+    <t>EGESTAS.ALIQUAM.NEC@SODALESNISI.COM</t>
+  </si>
+  <si>
+    <t>TELLUS@LOBORTISNISI.NET</t>
+  </si>
+  <si>
+    <t>ORCI@TORTORDICTUMEU.CO.UK</t>
+  </si>
+  <si>
+    <t>NIBH.QUISQUE.NONUMMY@AMETMETUSALIQUAM.EDU</t>
+  </si>
+  <si>
+    <t>JUSTO@ET.EDU</t>
+  </si>
+  <si>
+    <t>AT.ARCU.VESTIBULUM@SIT.CO.UK</t>
+  </si>
+  <si>
+    <t>ALIQUAM.ERAT.VOLUTPAT@FUSCEFERMENTUM.CA</t>
+  </si>
+  <si>
+    <t>AC.METUS@LACUSQUISQUE.ORG</t>
+  </si>
+  <si>
+    <t>EGET.LAOREET.POSUERE@SODALES.ORG</t>
+  </si>
+  <si>
+    <t>CONSEQUAT@SOLLICITUDIN.ORG</t>
+  </si>
+  <si>
+    <t>TURPIS.NEC@GRAVIDA.EDU</t>
+  </si>
+  <si>
+    <t>MASSA.LOBORTIS.ULTRICES@ULTRICESAAUCTOR.COM</t>
+  </si>
+  <si>
+    <t>SUSPENDISSE.ALIQUET@ETNUNCQUISQUE.ORG</t>
+  </si>
+  <si>
+    <t>AMET@UTDOLOR.ORG</t>
+  </si>
+  <si>
+    <t>VELIT.PELLENTESQUE.ULTRICIES@AUCTORODIO.ORG</t>
+  </si>
+  <si>
+    <t>SODALES.MAURIS.BLANDIT@RIDICULUSMUSPROIN.NET</t>
+  </si>
+  <si>
+    <t>DICTUM@ULLAMCORPERDUISCURSUS.CA</t>
+  </si>
+  <si>
+    <t>LOREM.LUCTUS@CURSUSVESTIBULUMMAURIS.ORG</t>
+  </si>
+  <si>
+    <t>ET.COMMODO.AT@ETULTRICES.ORG</t>
+  </si>
+  <si>
+    <t>NATOQUE.PENATIBUS@MALESUADAFAMES.COM</t>
+  </si>
+  <si>
+    <t>ALIQUAM.VULPUTATE@CONVALLISIN.NET</t>
+  </si>
+  <si>
+    <t>AMET@PULVINARARCUET.CO.UK</t>
+  </si>
+  <si>
+    <t>NULLAM.SUSCIPIT@RIDICULUSMUSAENEAN.ORG</t>
+  </si>
+  <si>
+    <t>ETIAM@ODIO.NET</t>
+  </si>
+  <si>
+    <t>BLANDIT.NAM@DOLOR.CO.UK</t>
+  </si>
+  <si>
+    <t>ELIT.PHARETRA.UT@VELIT.COM</t>
+  </si>
+  <si>
+    <t>EU.ODIO@IPSUM.NET</t>
+  </si>
+  <si>
+    <t>DIGNISSIM.LACUS@IACULIS.COM</t>
+  </si>
+  <si>
+    <t>NON@SEMUT.COM</t>
+  </si>
+  <si>
+    <t>IMPERDIET.ORNARE.IN@CURABITURUTODIO.EDU</t>
+  </si>
+  <si>
+    <t>NEC.IMPERDIET.NEC@MASSAVESTIBULUMACCUMSAN.ORG</t>
+  </si>
+  <si>
+    <t>FUSCE.MOLLIS.DUIS@PURUS.NET</t>
+  </si>
+  <si>
+    <t>EU.LIGULA.AENEAN@ULLAMCORPER.CO.UK</t>
+  </si>
+  <si>
+    <t>SUSPENDISSE@NEQUEPELLENTESQUE.NET</t>
+  </si>
+  <si>
+    <t>PEDE@VELQUAM.ORG</t>
+  </si>
+  <si>
+    <t>NUNC@ORNAREELIT.NET</t>
+  </si>
+  <si>
+    <t>SED.MALESUADA@URNAETARCU.COM</t>
+  </si>
+  <si>
+    <t>NISL.SEM.CONSEQUAT@NAMAC.CO.UK</t>
+  </si>
+  <si>
+    <t>AC.FERMENTUM.VEL@EGET.EDU</t>
+  </si>
+  <si>
+    <t>SUSPENDISSE.ALIQUET@NUNC.COM</t>
+  </si>
+  <si>
+    <t>QUAM.QUIS.DIAM@ACMETUS.CO.UK</t>
+  </si>
+  <si>
+    <t>ALIQUET.MOLESTIE@FERMENTUMARCUVESTIBULUM.NET</t>
+  </si>
+  <si>
+    <t>NEQUE@VEL.COM</t>
+  </si>
+  <si>
+    <t>QUAM.CURABITUR.VEL@LOREMDONECELEMENTUM.ORG</t>
+  </si>
+  <si>
+    <t>EGESTAS.URNA@CONSECTETUEREUISMOD.CA</t>
+  </si>
+  <si>
+    <t>EU@TRISTIQUENEQUEVENENATIS.EDU</t>
+  </si>
+  <si>
+    <t>BIBENDUM.FERMENTUM.METUS@VEL.ORG</t>
+  </si>
+  <si>
+    <t>ET@FELISPURUS.COM</t>
+  </si>
+  <si>
+    <t>SED.TURPIS@AMETFAUCIBUS.EDU</t>
+  </si>
+  <si>
+    <t>CURABITUR@ALIQUAMRUTRUMLOREM.EDU</t>
+  </si>
+  <si>
+    <t>RISUS.AT@FACILISISFACILISISMAGNA.EDU</t>
+  </si>
+  <si>
+    <t>VITAE.SODALES.NISI@LECTUS.NET</t>
+  </si>
+  <si>
+    <t>AT@VELVULPUTATE.EDU</t>
+  </si>
+  <si>
+    <t>FACILISIS@PHASELLUSELIT.NET</t>
+  </si>
+  <si>
+    <t>TORTOR.NIBH@IACULISODIO.CA</t>
+  </si>
+  <si>
+    <t>NON@POSUEREENIM.NET</t>
+  </si>
+  <si>
+    <t>PHASELLUS.ORNARE@EGET.EDU</t>
+  </si>
+  <si>
+    <t>IACULIS@PORTTITORTELLUS.CO.UK</t>
+  </si>
+  <si>
+    <t>ORNARE.LIBERO@PHASELLUSFERMENTUM.CO.UK</t>
+  </si>
+  <si>
+    <t>LACUS@SAGITTISAUGUE.CA</t>
+  </si>
+  <si>
+    <t>IN.CURSUS@DAPIBUS.NET</t>
+  </si>
+  <si>
+    <t>EST.MAURIS.RHONCUS@RISUS.ORG</t>
+  </si>
+  <si>
+    <t>SED.DICTUM@EUDUI.CA</t>
+  </si>
+  <si>
+    <t>LOREM.IPSUM.DOLOR@BIBENDUM.CO.UK</t>
+  </si>
+  <si>
+    <t>DUI.FUSCE.ALIQUAM@QUISQUEVARIUSNAM.CA</t>
+  </si>
+  <si>
+    <t>ORNARE@FEUGIAT.ORG</t>
+  </si>
+  <si>
+    <t>LOBORTIS.QUIS@MAGNA.COM</t>
+  </si>
+  <si>
+    <t>NUNC@PROINVELIT.EDU</t>
+  </si>
+  <si>
+    <t>LACUS@LACUSMAURISNON.CA</t>
+  </si>
+  <si>
+    <t>RHONCUS.DONEC.EST@QUISQUEIMPERDIET.EDU</t>
+  </si>
+  <si>
+    <t>BLANDIT.MATTIS.CRAS@NEQUETELLUS.CA</t>
+  </si>
+  <si>
+    <t>EU@EGESTAS.NET</t>
+  </si>
+  <si>
+    <t>NON.LEO.VIVAMUS@IDRISUS.EDU</t>
+  </si>
+  <si>
+    <t>CURSUS.PURUS.NULLAM@NONUMMYFUSCEFERMENTUM.NET</t>
+  </si>
+  <si>
+    <t>EGET.METUS.EU@ANTEMAECENASMI.CA</t>
+  </si>
+  <si>
+    <t>IPSUM.PRIMIS@VITAEPURUSGRAVIDA.NET</t>
+  </si>
+  <si>
+    <t>FUSCE.DOLOR@SUSPENDISSENON.COM</t>
+  </si>
+  <si>
+    <t>PROIN.SED@NULLAFACILISI.CO.UK</t>
+  </si>
+  <si>
+    <t>ACCUMSAN.CONVALLIS.ANTE@MAGNASUSPENDISSE.COM</t>
+  </si>
+  <si>
+    <t>CURSUS@DICTUMULTRICIES.EDU</t>
+  </si>
+  <si>
+    <t>MAURIS.INTEGER.SEM@ENIMETIAMIMPERDIET.CO.UK</t>
+  </si>
+  <si>
+    <t>IPSUM.LEO@TORTORDICTUM.NET</t>
+  </si>
+  <si>
+    <t>DONEC@AENEANSEDPEDE.CO.UK</t>
+  </si>
+  <si>
+    <t>CURABITUR@ARCUVIVAMUS.ORG</t>
+  </si>
+  <si>
+    <t>ULTRICES.MAURIS.IPSUM@SEDDIAMLOREM.NET</t>
+  </si>
+  <si>
+    <t>NUNC@IDLIBERO.NET</t>
+  </si>
+  <si>
+    <t>NONUMMY@RISUSATFRINGILLA.NET</t>
+  </si>
+  <si>
+    <t>MATTIS.CRAS@UTPELLENTESQUEEGET.CO.UK</t>
+  </si>
+  <si>
+    <t>DOLOR.VITAE@VARIUS.COM</t>
+  </si>
+  <si>
+    <t>NEQUE.NULLAM@POSUERECUBILIACURAE.CO.UK</t>
+  </si>
+  <si>
+    <t>A.ENIM.SUSPENDISSE@ANTEMAECENAS.CA</t>
+  </si>
+  <si>
+    <t>LIGULA@AMETRISUS.CA</t>
+  </si>
+  <si>
+    <t>EGET@NECORCIDONEC.CA</t>
+  </si>
+  <si>
+    <t>NON.VESTIBULUM.NEC@ALIQUAMULTRICES.NET</t>
+  </si>
+  <si>
+    <t>QUAM.VEL@ARCU.NET</t>
+  </si>
+  <si>
+    <t>DIGNISSIM@NUNC.ORG</t>
+  </si>
+  <si>
+    <t>CURSUS@EGETMETUS.CA</t>
+  </si>
+  <si>
+    <t>MAGNIS.DIS.PARTURIENT@CONVALLIS.NET</t>
+  </si>
+  <si>
+    <t>IN.FAUCIBUS@VELITEU.COM</t>
+  </si>
+  <si>
+    <t>ET.TRISTIQUE@HENDRERITCONSECTETUERCURSUS.NET</t>
+  </si>
+  <si>
+    <t>NULLA.IN@QUISPEDEPRAESENT.NET</t>
+  </si>
+  <si>
+    <t>EU.ODIO@ULTRICIES.COM</t>
+  </si>
+  <si>
+    <t>QUIS@VEL.ORG</t>
+  </si>
+  <si>
+    <t>MONTES@VELIT.CA</t>
+  </si>
+  <si>
+    <t>LUCTUS@DONECATARCU.CA</t>
+  </si>
+  <si>
+    <t>ULTRICIES.ORNARE.ELIT@ETIPSUMCURSUS.COM</t>
+  </si>
+  <si>
+    <t>ANTE.IACULIS.NEC@PRETIUM.ORG</t>
+  </si>
+  <si>
+    <t>TEMPOR.ARCU.VESTIBULUM@EU.COM</t>
+  </si>
+  <si>
+    <t>SED@LOREMIPSUMDOLOR.ORG</t>
+  </si>
+  <si>
+    <t>TINCIDUNT.DUI.AUGUE@FERMENTUM.CA</t>
+  </si>
+  <si>
+    <t>FAUCIBUS@AARCU.CA</t>
+  </si>
+  <si>
+    <t>ALIQUET.ODIO@DIAMLUCTUS.ORG</t>
+  </si>
+  <si>
+    <t>IPSUM.SUSPENDISSE.NON@INTERDUMENIMNON.COM</t>
+  </si>
+  <si>
+    <t>SEM@DONEC.ORG</t>
+  </si>
+  <si>
+    <t>HABITANT@TEMPUS.EDU</t>
+  </si>
+  <si>
+    <t>ORNARE.LIBERO.AT@CUM.COM</t>
+  </si>
+  <si>
+    <t>LACUS@NEQUESEDEGET.CA</t>
+  </si>
+  <si>
+    <t>DIS.PARTURIENT@ALIQUAM.ORG</t>
+  </si>
+  <si>
+    <t>METUS.IN.LOREM@PELLENTESQUESEDDICTUM.ORG</t>
+  </si>
+  <si>
+    <t>MAURIS.A@LOREMTRISTIQUE.COM</t>
+  </si>
+  <si>
+    <t>ELIT@MAURIS.ORG</t>
+  </si>
+  <si>
+    <t>DIGNISSIM.PHARETRA@SENECTUS.COM</t>
+  </si>
+  <si>
+    <t>ENIM.SUSPENDISSE@NECQUAM.NET</t>
+  </si>
+  <si>
+    <t>DUIS@VULPUTATEEU.NET</t>
+  </si>
+  <si>
+    <t>TEMPUS@AMET.COM</t>
+  </si>
+  <si>
+    <t>SEMPER.TELLUS@NON.CA</t>
+  </si>
+  <si>
+    <t>ELEIFEND.CRAS@IACULISNEC.CO.UK</t>
+  </si>
+  <si>
+    <t>NULLAM.VELIT.DUI@CONSECTETUERRHONCUSNULLAM.EDU</t>
+  </si>
+  <si>
+    <t>INTERDUM@IN.CO.UK</t>
+  </si>
+  <si>
+    <t>VESTIBULUM.MAURIS@EUEUISMOD.COM</t>
+  </si>
+  <si>
+    <t>FUSCE@SENECTUSETNETUS.CO.UK</t>
+  </si>
+  <si>
+    <t>SUSPENDISSE@LOBORTIS.CA</t>
+  </si>
+  <si>
+    <t>PEDE@LIBERO.NET</t>
+  </si>
+  <si>
+    <t>PLACERAT@MALESUADA.ORG</t>
+  </si>
+  <si>
+    <t>AUCTOR.QUIS@COMMODOIPSUMSUSPENDISSE.EDU</t>
+  </si>
+  <si>
+    <t>NON.ARCU.VIVAMUS@AMET.COM</t>
+  </si>
+  <si>
+    <t>IN.CONDIMENTUM.DONEC@LOBORTIS.CO.UK</t>
+  </si>
+  <si>
+    <t>URNA@QUISQUEPORTTITOREROS.NET</t>
+  </si>
+  <si>
+    <t>QUIS.TRISTIQUE@SUSCIPIT.COM</t>
+  </si>
+  <si>
+    <t>CONSEQUAT.AUCTOR.NUNC@DUIS.CA</t>
+  </si>
+  <si>
+    <t>TINCIDUNT.NIBH@ORCILUCTUS.NET</t>
+  </si>
+  <si>
+    <t>JUSTO@DOLORSIT.CA</t>
+  </si>
+  <si>
+    <t>JUSTO.PROIN.NON@AT.EDU</t>
+  </si>
+  <si>
+    <t>MONTES.NASCETUR@LOBORTISULTRICES.COM</t>
+  </si>
+  <si>
+    <t>EUISMOD.MAURIS.EU@AMETULTRICIES.EDU</t>
+  </si>
+  <si>
+    <t>ET.MALESUADA@GRAVIDA.NET</t>
+  </si>
+  <si>
+    <t>URNA.NUNC.QUIS@SEDSEMEGESTAS.EDU</t>
+  </si>
+  <si>
+    <t>AMET@ELIT.NET</t>
+  </si>
+  <si>
+    <t>NAM.NULLA.MAGNA@NULLAFACILISISED.COM</t>
+  </si>
+  <si>
+    <t>SOLLICITUDIN.ORCI.SEM@ORCI.COM</t>
+  </si>
+  <si>
+    <t>TELLUS@ATVELIT.EDU</t>
+  </si>
+  <si>
+    <t>CRAS@ODIONAM.CO.UK</t>
+  </si>
+  <si>
+    <t>QUIS.TRISTIQUE.AC@NONNISIAENEAN.CA</t>
+  </si>
+  <si>
+    <t>VIVERRA.MAECENAS.IACULIS@DIAM.CA</t>
+  </si>
+  <si>
+    <t>NON.ENIM.COMMODO@ORNARE.CO.UK</t>
+  </si>
+  <si>
+    <t>A.ARCU.SED@VELVENENATIS.EDU</t>
+  </si>
+  <si>
+    <t>AMET.MASSA@RISUSATFRINGILLA.CO.UK</t>
+  </si>
+  <si>
+    <t>ENIM@SEMPERETLACINIA.CA</t>
+  </si>
+  <si>
+    <t>BIBENDUM@VEL.NET</t>
+  </si>
+  <si>
+    <t>TURPIS.VITAE@ATVELITCRAS.COM</t>
+  </si>
+  <si>
+    <t>VITAE.ODIO.SAGITTIS@ATARCU.COM</t>
+  </si>
+  <si>
+    <t>BLANDIT.ENIM@EGESTAS.EDU</t>
+  </si>
+  <si>
+    <t>PELLENTESQUE@SUSPENDISSE.CA</t>
+  </si>
+  <si>
+    <t>SEMPER.NAM@JUSTONEC.CO.UK</t>
+  </si>
+  <si>
+    <t>LECTUS@SEDDOLOR.ORG</t>
+  </si>
+  <si>
+    <t>ADIPISCING@SAGITTISAUGUEEU.CO.UK</t>
+  </si>
+  <si>
+    <t>DICTUM@PROIN.COM</t>
+  </si>
+  <si>
+    <t>NEQUE.PELLENTESQUE.MASSA@VELITQUISQUEVARIUS.COM</t>
+  </si>
+  <si>
+    <t>SUSCIPIT.NONUMMY@AFEUGIATTELLUS.COM</t>
+  </si>
+  <si>
+    <t>TORTOR.NIBH@NUNCLAOREETLECTUS.CO.UK</t>
+  </si>
+  <si>
+    <t>AC@DIAM.COM</t>
+  </si>
+  <si>
+    <t>LECTUS@EUNULLAAT.CO.UK</t>
+  </si>
+  <si>
+    <t>SEM.MOLLIS@AMETCONSECTETUERADIPISCING.CA</t>
+  </si>
+  <si>
+    <t>PHARETRA.FELIS.EGET@SUSPENDISSENON.CO.UK</t>
+  </si>
+  <si>
+    <t>ADIPISCING.ELIT.CURABITUR@SEDNECMETUS.COM</t>
+  </si>
+  <si>
+    <t>MAGNIS.DIS@MILOREMVEHICULA.CA</t>
+  </si>
+  <si>
+    <t>TELLUS.PHASELLUS@CRAS.NET</t>
+  </si>
+  <si>
+    <t>DUIS.DIGNISSIM.TEMPOR@EROSPROINULTRICES.NET</t>
+  </si>
+  <si>
+    <t>PER@NEQUENONQUAM.EDU</t>
+  </si>
+  <si>
+    <t>PRIMIS.IN@AC.EDU</t>
+  </si>
+  <si>
+    <t>A.MALESUADA.ID@INFAUCIBUSORCI.ORG</t>
+  </si>
+  <si>
+    <t>COMMODO.AT.LIBERO@LUCTUSCURABITUREGESTAS.COM</t>
+  </si>
+  <si>
+    <t>ALIQUAM.RUTRUM.LOREM@ADIPISCING.EDU</t>
+  </si>
+  <si>
+    <t>NONUMMY.FUSCE@LOBORTISQUISPEDE.COM</t>
+  </si>
+  <si>
+    <t>IPSUM@CONSEQUAT.CO.UK</t>
+  </si>
+  <si>
+    <t>SODALES@MORBI.NET</t>
+  </si>
+  <si>
+    <t>LUCTUS@LOREMFRINGILLA.ORG</t>
+  </si>
+  <si>
+    <t>AUCTOR.VELIT@IPSUMCURSUSVESTIBULUM.EDU</t>
+  </si>
+  <si>
+    <t>DIGNISSIM@SED.COM</t>
+  </si>
+  <si>
+    <t>PROIN@CURSUS.CA</t>
+  </si>
+  <si>
+    <t>EUISMOD@ELITALIQUAMAUCTOR.ORG</t>
+  </si>
+  <si>
+    <t>AT.PEDE.CRAS@SUSPENDISSENON.ORG</t>
+  </si>
+  <si>
+    <t>MALESUADA@ALIQUET.CO.UK</t>
+  </si>
+  <si>
+    <t>AMET.NULLA@NON.COM</t>
+  </si>
+  <si>
+    <t>SOLLICITUDIN.ORCI@CURSUS.COM</t>
+  </si>
+  <si>
+    <t>LACUS@ARCUCURABITUR.CO.UK</t>
+  </si>
+  <si>
+    <t>LUCTUS.LOBORTIS.CLASS@AMETCONSECTETUERADIPISCING.COM</t>
+  </si>
+  <si>
+    <t>DOLOR.SIT.AMET@LACINIAVITAESODALES.NET</t>
+  </si>
+  <si>
+    <t>BLANDIT@UTPELLENTESQUEEGET.CA</t>
+  </si>
+  <si>
+    <t>BIBENDUM.DONEC@ADIPISCINGELIT.ORG</t>
+  </si>
+  <si>
+    <t>MONTES.NASCETUR@DICTUMELEIFEND.EDU</t>
+  </si>
+  <si>
+    <t>RISUS@ERAT.NET</t>
+  </si>
+  <si>
+    <t>LIGULA.DONEC@NONVESTIBULUMNEC.EDU</t>
+  </si>
+  <si>
+    <t>NULLA@LIGULA.CA</t>
+  </si>
+  <si>
+    <t>NULLA.AT.SEM@ALIQUAM.COM</t>
+  </si>
+  <si>
+    <t>NEQUE.SED.SEM@LOREM.CA</t>
+  </si>
+  <si>
+    <t>METUS@INLOBORTISTELLUS.COM</t>
+  </si>
+  <si>
+    <t>LOBORTIS.ULTRICES.VIVAMUS@SED.COM</t>
+  </si>
+  <si>
+    <t>RUTRUM.FUSCE.DOLOR@MAURISVEL.NET</t>
+  </si>
+  <si>
+    <t>PLACERAT@PRIMISIN.CO.UK</t>
+  </si>
+  <si>
+    <t>SIT.AMET.CONSECTETUER@CONSEQUATENIM.CO.UK</t>
+  </si>
+  <si>
+    <t>MAGNA.NEC@ELEIFEND.CA</t>
+  </si>
+  <si>
+    <t>ENIM.COMMODO@FAMESAC.CO.UK</t>
+  </si>
+  <si>
+    <t>ORCI.ADIPISCING.NON@CURSUS.CA</t>
+  </si>
+  <si>
+    <t>EST.TEMPOR.BIBENDUM@QUAMPELLENTESQUEHABITANT.EDU</t>
+  </si>
+  <si>
+    <t>TELLUS.ID.NUNC@NONUMMYAC.EDU</t>
+  </si>
+  <si>
+    <t>LAOREET@ET.COM</t>
+  </si>
+  <si>
+    <t>EU.TELLUS@VELITSED.EDU</t>
+  </si>
+  <si>
+    <t>CURABITUR.EGESTAS@SAPIENMOLESTIE.NET</t>
+  </si>
+  <si>
+    <t>DUI.FUSCE@NEC.COM</t>
+  </si>
+  <si>
+    <t>VITAE.DOLOR.DONEC@ELITPEDE.ORG</t>
+  </si>
+  <si>
+    <t>SEMPER@NUNCULLAMCORPERVELIT.EDU</t>
+  </si>
+  <si>
+    <t>AT.LIBERO@EUSEMPELLENTESQUE.NET</t>
+  </si>
+  <si>
+    <t>AC@ORNARESAGITTISFELIS.ORG</t>
+  </si>
+  <si>
+    <t>LOBORTIS.QUIS@ALIQUAMNISLNULLA.CA</t>
+  </si>
+  <si>
+    <t>TINCIDUNT.VEHICULA.RISUS@NECMALESUADA.EDU</t>
+  </si>
+  <si>
+    <t>ELEMENTUM@LACUS.CO.UK</t>
+  </si>
+  <si>
+    <t>ADIPISCING.ELIT.ALIQUAM@BLANDITVIVERRA.EDU</t>
+  </si>
+  <si>
+    <t>ARCU@CURAE.COM</t>
+  </si>
+  <si>
+    <t>CONVALLIS.EST@AFEUGIAT.EDU</t>
+  </si>
+  <si>
+    <t>VEL@NATOQUE.EDU</t>
+  </si>
+  <si>
+    <t>LIBERO.ET@FAUCIBUS.CA</t>
+  </si>
+  <si>
+    <t>ARCU.VESTIBULUM.UT@DIAM.NET</t>
+  </si>
+  <si>
+    <t>PELLENTESQUE.UT@PROIN.CO.UK</t>
+  </si>
+  <si>
+    <t>IPSUM.DOLOR.SIT@UTQUAM.CA</t>
+  </si>
+  <si>
+    <t>TRISTIQUE.PHARETRA@IN.COM</t>
+  </si>
+  <si>
+    <t>A.AUCTOR.NON@TRISTIQUE.EDU</t>
+  </si>
+  <si>
+    <t>MAURIS@ERAT.NET</t>
+  </si>
+  <si>
+    <t>PHARETRA.SED.HENDRERIT@VULPUTATE.CA</t>
+  </si>
+  <si>
+    <t>UT.ODIO@SEDTORTORINTEGER.CO.UK</t>
+  </si>
+  <si>
+    <t>MOLLIS@EST.CA</t>
+  </si>
+  <si>
+    <t>FAUCIBUS.LEO@SED.NET</t>
+  </si>
+  <si>
+    <t>MAGNA.NEC@ALIQUETVELVULPUTATE.CO.UK</t>
+  </si>
+  <si>
+    <t>VALIDO</t>
+  </si>
+  <si>
+    <t>INVALIDO</t>
   </si>
 </sst>
 </file>
